--- a/data_src/hiperlinks.xlsx
+++ b/data_src/hiperlinks.xlsx
@@ -1598,7 +1598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5189" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="1367">
   <si>
     <t>IDENTIFICAÇÃO</t>
   </si>
@@ -5704,6 +5704,9 @@
   </si>
   <si>
     <t>http://gestaourbana.prefeitura.sp.gov.br/wp-content/uploads/piu-monitoramento/VL5_Divulgacao_Audiencia.pdf</t>
+  </si>
+  <si>
+    <t>Página consulta</t>
   </si>
 </sst>
 </file>
@@ -8999,13 +9002,31 @@
     <xf numFmtId="14" fontId="45" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9056,28 +9077,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9104,6 +9110,15 @@
     <xf numFmtId="14" fontId="23" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9111,6 +9126,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9122,41 +9161,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9170,9 +9176,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -9181,7 +9184,14 @@
     <cellStyle name="Separador de milhares" xfId="1" builtinId="3"/>
     <cellStyle name="Separador de milhares 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="252">
+  <dxfs count="253">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -14948,26 +14958,26 @@
       <c r="A3" s="181" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="697" t="s">
+      <c r="B3" s="698" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="697"/>
-      <c r="D3" s="697"/>
-      <c r="E3" s="697"/>
-      <c r="F3" s="697"/>
-      <c r="G3" s="697"/>
-      <c r="H3" s="697"/>
-      <c r="I3" s="697"/>
-      <c r="J3" s="697"/>
-      <c r="K3" s="697"/>
-      <c r="L3" s="697"/>
-      <c r="M3" s="697"/>
-      <c r="N3" s="697"/>
-      <c r="O3" s="697"/>
-      <c r="P3" s="697"/>
-      <c r="Q3" s="697"/>
-      <c r="R3" s="697"/>
-      <c r="S3" s="697"/>
+      <c r="C3" s="698"/>
+      <c r="D3" s="698"/>
+      <c r="E3" s="698"/>
+      <c r="F3" s="698"/>
+      <c r="G3" s="698"/>
+      <c r="H3" s="698"/>
+      <c r="I3" s="698"/>
+      <c r="J3" s="698"/>
+      <c r="K3" s="698"/>
+      <c r="L3" s="698"/>
+      <c r="M3" s="698"/>
+      <c r="N3" s="698"/>
+      <c r="O3" s="698"/>
+      <c r="P3" s="698"/>
+      <c r="Q3" s="698"/>
+      <c r="R3" s="698"/>
+      <c r="S3" s="698"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="183" t="s">
@@ -17040,10 +17050,10 @@
       <c r="FA4" s="253"/>
     </row>
     <row r="5" spans="1:170" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A5" s="716" t="s">
+      <c r="A5" s="699" t="s">
         <v>758</v>
       </c>
-      <c r="B5" s="716"/>
+      <c r="B5" s="699"/>
       <c r="C5" s="255">
         <v>43270.737233449072</v>
       </c>
@@ -17522,165 +17532,165 @@
       </c>
     </row>
     <row r="6" spans="1:170" s="260" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A6" s="717" t="s">
+      <c r="A6" s="700" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="718"/>
-      <c r="C6" s="718"/>
-      <c r="D6" s="718"/>
-      <c r="E6" s="718"/>
-      <c r="F6" s="718"/>
-      <c r="G6" s="718"/>
-      <c r="H6" s="718"/>
-      <c r="I6" s="719"/>
-      <c r="J6" s="708" t="s">
+      <c r="B6" s="701"/>
+      <c r="C6" s="701"/>
+      <c r="D6" s="701"/>
+      <c r="E6" s="701"/>
+      <c r="F6" s="701"/>
+      <c r="G6" s="701"/>
+      <c r="H6" s="701"/>
+      <c r="I6" s="702"/>
+      <c r="J6" s="714" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="709"/>
-      <c r="L6" s="709"/>
-      <c r="M6" s="709"/>
-      <c r="N6" s="709"/>
-      <c r="O6" s="709"/>
-      <c r="P6" s="709"/>
-      <c r="Q6" s="709"/>
-      <c r="R6" s="709"/>
-      <c r="S6" s="709"/>
-      <c r="T6" s="709"/>
-      <c r="U6" s="709"/>
-      <c r="V6" s="709"/>
-      <c r="W6" s="709"/>
-      <c r="X6" s="709"/>
-      <c r="Y6" s="709"/>
-      <c r="Z6" s="709"/>
-      <c r="AA6" s="709"/>
-      <c r="AB6" s="709"/>
-      <c r="AC6" s="709"/>
-      <c r="AD6" s="709"/>
-      <c r="AE6" s="709"/>
-      <c r="AF6" s="709"/>
-      <c r="AG6" s="709"/>
-      <c r="AH6" s="709"/>
-      <c r="AI6" s="709"/>
-      <c r="AJ6" s="709"/>
-      <c r="AK6" s="709"/>
-      <c r="AL6" s="709"/>
-      <c r="AM6" s="709"/>
-      <c r="AN6" s="709"/>
-      <c r="AO6" s="709"/>
-      <c r="AP6" s="709"/>
-      <c r="AQ6" s="709"/>
-      <c r="AR6" s="709"/>
-      <c r="AS6" s="709"/>
-      <c r="AT6" s="709"/>
-      <c r="AU6" s="709"/>
-      <c r="AV6" s="709"/>
-      <c r="AW6" s="709"/>
-      <c r="AX6" s="709"/>
-      <c r="AY6" s="709"/>
-      <c r="AZ6" s="709"/>
-      <c r="BA6" s="709"/>
-      <c r="BB6" s="709"/>
-      <c r="BC6" s="709"/>
-      <c r="BD6" s="709"/>
-      <c r="BE6" s="709"/>
-      <c r="BF6" s="709"/>
-      <c r="BG6" s="709"/>
-      <c r="BH6" s="709"/>
-      <c r="BI6" s="709"/>
-      <c r="BJ6" s="709"/>
-      <c r="BK6" s="709"/>
-      <c r="BL6" s="709"/>
-      <c r="BM6" s="709"/>
-      <c r="BN6" s="709"/>
-      <c r="BO6" s="709"/>
-      <c r="BP6" s="709"/>
-      <c r="BQ6" s="709"/>
-      <c r="BR6" s="709"/>
-      <c r="BS6" s="709"/>
-      <c r="BT6" s="709"/>
-      <c r="BU6" s="709"/>
-      <c r="BV6" s="709"/>
-      <c r="BW6" s="709"/>
-      <c r="BX6" s="709"/>
-      <c r="BY6" s="709"/>
-      <c r="BZ6" s="709"/>
-      <c r="CA6" s="709"/>
-      <c r="CB6" s="709"/>
-      <c r="CC6" s="709"/>
-      <c r="CD6" s="709"/>
-      <c r="CE6" s="709"/>
-      <c r="CF6" s="709"/>
-      <c r="CG6" s="709"/>
-      <c r="CH6" s="709"/>
-      <c r="CI6" s="709"/>
-      <c r="CJ6" s="709"/>
-      <c r="CK6" s="709"/>
-      <c r="CL6" s="709"/>
-      <c r="CM6" s="709"/>
-      <c r="CN6" s="709"/>
-      <c r="CO6" s="709"/>
-      <c r="CP6" s="709"/>
-      <c r="CQ6" s="709"/>
-      <c r="CR6" s="709"/>
-      <c r="CS6" s="709"/>
-      <c r="CT6" s="709"/>
-      <c r="CU6" s="709"/>
-      <c r="CV6" s="709"/>
-      <c r="CW6" s="709"/>
-      <c r="CX6" s="709"/>
-      <c r="CY6" s="709"/>
-      <c r="CZ6" s="709"/>
-      <c r="DA6" s="709"/>
-      <c r="DB6" s="709"/>
-      <c r="DC6" s="709"/>
-      <c r="DD6" s="709"/>
-      <c r="DE6" s="709"/>
-      <c r="DF6" s="709"/>
-      <c r="DG6" s="709"/>
-      <c r="DH6" s="709"/>
-      <c r="DI6" s="709"/>
-      <c r="DJ6" s="709"/>
-      <c r="DK6" s="709"/>
-      <c r="DL6" s="709"/>
-      <c r="DM6" s="709"/>
-      <c r="DN6" s="709"/>
-      <c r="DO6" s="709"/>
-      <c r="DP6" s="709"/>
-      <c r="DQ6" s="709"/>
-      <c r="DR6" s="709"/>
-      <c r="DS6" s="709"/>
-      <c r="DT6" s="709"/>
-      <c r="DU6" s="709"/>
-      <c r="DV6" s="709"/>
-      <c r="DW6" s="709"/>
-      <c r="DX6" s="710"/>
-      <c r="DY6" s="711" t="s">
+      <c r="K6" s="715"/>
+      <c r="L6" s="715"/>
+      <c r="M6" s="715"/>
+      <c r="N6" s="715"/>
+      <c r="O6" s="715"/>
+      <c r="P6" s="715"/>
+      <c r="Q6" s="715"/>
+      <c r="R6" s="715"/>
+      <c r="S6" s="715"/>
+      <c r="T6" s="715"/>
+      <c r="U6" s="715"/>
+      <c r="V6" s="715"/>
+      <c r="W6" s="715"/>
+      <c r="X6" s="715"/>
+      <c r="Y6" s="715"/>
+      <c r="Z6" s="715"/>
+      <c r="AA6" s="715"/>
+      <c r="AB6" s="715"/>
+      <c r="AC6" s="715"/>
+      <c r="AD6" s="715"/>
+      <c r="AE6" s="715"/>
+      <c r="AF6" s="715"/>
+      <c r="AG6" s="715"/>
+      <c r="AH6" s="715"/>
+      <c r="AI6" s="715"/>
+      <c r="AJ6" s="715"/>
+      <c r="AK6" s="715"/>
+      <c r="AL6" s="715"/>
+      <c r="AM6" s="715"/>
+      <c r="AN6" s="715"/>
+      <c r="AO6" s="715"/>
+      <c r="AP6" s="715"/>
+      <c r="AQ6" s="715"/>
+      <c r="AR6" s="715"/>
+      <c r="AS6" s="715"/>
+      <c r="AT6" s="715"/>
+      <c r="AU6" s="715"/>
+      <c r="AV6" s="715"/>
+      <c r="AW6" s="715"/>
+      <c r="AX6" s="715"/>
+      <c r="AY6" s="715"/>
+      <c r="AZ6" s="715"/>
+      <c r="BA6" s="715"/>
+      <c r="BB6" s="715"/>
+      <c r="BC6" s="715"/>
+      <c r="BD6" s="715"/>
+      <c r="BE6" s="715"/>
+      <c r="BF6" s="715"/>
+      <c r="BG6" s="715"/>
+      <c r="BH6" s="715"/>
+      <c r="BI6" s="715"/>
+      <c r="BJ6" s="715"/>
+      <c r="BK6" s="715"/>
+      <c r="BL6" s="715"/>
+      <c r="BM6" s="715"/>
+      <c r="BN6" s="715"/>
+      <c r="BO6" s="715"/>
+      <c r="BP6" s="715"/>
+      <c r="BQ6" s="715"/>
+      <c r="BR6" s="715"/>
+      <c r="BS6" s="715"/>
+      <c r="BT6" s="715"/>
+      <c r="BU6" s="715"/>
+      <c r="BV6" s="715"/>
+      <c r="BW6" s="715"/>
+      <c r="BX6" s="715"/>
+      <c r="BY6" s="715"/>
+      <c r="BZ6" s="715"/>
+      <c r="CA6" s="715"/>
+      <c r="CB6" s="715"/>
+      <c r="CC6" s="715"/>
+      <c r="CD6" s="715"/>
+      <c r="CE6" s="715"/>
+      <c r="CF6" s="715"/>
+      <c r="CG6" s="715"/>
+      <c r="CH6" s="715"/>
+      <c r="CI6" s="715"/>
+      <c r="CJ6" s="715"/>
+      <c r="CK6" s="715"/>
+      <c r="CL6" s="715"/>
+      <c r="CM6" s="715"/>
+      <c r="CN6" s="715"/>
+      <c r="CO6" s="715"/>
+      <c r="CP6" s="715"/>
+      <c r="CQ6" s="715"/>
+      <c r="CR6" s="715"/>
+      <c r="CS6" s="715"/>
+      <c r="CT6" s="715"/>
+      <c r="CU6" s="715"/>
+      <c r="CV6" s="715"/>
+      <c r="CW6" s="715"/>
+      <c r="CX6" s="715"/>
+      <c r="CY6" s="715"/>
+      <c r="CZ6" s="715"/>
+      <c r="DA6" s="715"/>
+      <c r="DB6" s="715"/>
+      <c r="DC6" s="715"/>
+      <c r="DD6" s="715"/>
+      <c r="DE6" s="715"/>
+      <c r="DF6" s="715"/>
+      <c r="DG6" s="715"/>
+      <c r="DH6" s="715"/>
+      <c r="DI6" s="715"/>
+      <c r="DJ6" s="715"/>
+      <c r="DK6" s="715"/>
+      <c r="DL6" s="715"/>
+      <c r="DM6" s="715"/>
+      <c r="DN6" s="715"/>
+      <c r="DO6" s="715"/>
+      <c r="DP6" s="715"/>
+      <c r="DQ6" s="715"/>
+      <c r="DR6" s="715"/>
+      <c r="DS6" s="715"/>
+      <c r="DT6" s="715"/>
+      <c r="DU6" s="715"/>
+      <c r="DV6" s="715"/>
+      <c r="DW6" s="715"/>
+      <c r="DX6" s="716"/>
+      <c r="DY6" s="717" t="s">
         <v>2</v>
       </c>
-      <c r="DZ6" s="712"/>
-      <c r="EA6" s="712"/>
-      <c r="EB6" s="713"/>
-      <c r="EC6" s="713"/>
-      <c r="ED6" s="713"/>
-      <c r="EE6" s="713"/>
-      <c r="EF6" s="713"/>
-      <c r="EG6" s="712"/>
-      <c r="EH6" s="712"/>
-      <c r="EI6" s="712"/>
-      <c r="EJ6" s="712"/>
-      <c r="EK6" s="712"/>
-      <c r="EL6" s="712"/>
-      <c r="EM6" s="712"/>
-      <c r="EN6" s="712"/>
-      <c r="EO6" s="712"/>
-      <c r="EP6" s="712"/>
-      <c r="EQ6" s="712"/>
-      <c r="ER6" s="712"/>
-      <c r="ES6" s="712"/>
-      <c r="ET6" s="712"/>
-      <c r="EU6" s="712"/>
-      <c r="EV6" s="712"/>
-      <c r="EW6" s="714"/>
+      <c r="DZ6" s="718"/>
+      <c r="EA6" s="718"/>
+      <c r="EB6" s="719"/>
+      <c r="EC6" s="719"/>
+      <c r="ED6" s="719"/>
+      <c r="EE6" s="719"/>
+      <c r="EF6" s="719"/>
+      <c r="EG6" s="718"/>
+      <c r="EH6" s="718"/>
+      <c r="EI6" s="718"/>
+      <c r="EJ6" s="718"/>
+      <c r="EK6" s="718"/>
+      <c r="EL6" s="718"/>
+      <c r="EM6" s="718"/>
+      <c r="EN6" s="718"/>
+      <c r="EO6" s="718"/>
+      <c r="EP6" s="718"/>
+      <c r="EQ6" s="718"/>
+      <c r="ER6" s="718"/>
+      <c r="ES6" s="718"/>
+      <c r="ET6" s="718"/>
+      <c r="EU6" s="718"/>
+      <c r="EV6" s="718"/>
+      <c r="EW6" s="720"/>
       <c r="EX6" s="1"/>
       <c r="EY6" s="409"/>
       <c r="EZ6" s="410"/>
@@ -17691,187 +17701,187 @@
       <c r="FE6" s="411"/>
     </row>
     <row r="7" spans="1:170" s="261" customFormat="1" ht="39" customHeight="1">
-      <c r="A7" s="698" t="s">
+      <c r="A7" s="703" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="699"/>
-      <c r="C7" s="699"/>
-      <c r="D7" s="699"/>
-      <c r="E7" s="699"/>
-      <c r="F7" s="699"/>
-      <c r="G7" s="720"/>
-      <c r="H7" s="698" t="s">
+      <c r="B7" s="704"/>
+      <c r="C7" s="704"/>
+      <c r="D7" s="704"/>
+      <c r="E7" s="704"/>
+      <c r="F7" s="704"/>
+      <c r="G7" s="705"/>
+      <c r="H7" s="703" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="700"/>
-      <c r="J7" s="698" t="s">
+      <c r="I7" s="706"/>
+      <c r="J7" s="703" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="700"/>
-      <c r="L7" s="698" t="s">
+      <c r="K7" s="706"/>
+      <c r="L7" s="703" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="699"/>
-      <c r="N7" s="699"/>
-      <c r="O7" s="699"/>
-      <c r="P7" s="699"/>
-      <c r="Q7" s="699"/>
-      <c r="R7" s="699"/>
-      <c r="S7" s="699"/>
-      <c r="T7" s="699"/>
-      <c r="U7" s="699"/>
-      <c r="V7" s="699"/>
-      <c r="W7" s="700"/>
-      <c r="X7" s="701" t="s">
+      <c r="M7" s="704"/>
+      <c r="N7" s="704"/>
+      <c r="O7" s="704"/>
+      <c r="P7" s="704"/>
+      <c r="Q7" s="704"/>
+      <c r="R7" s="704"/>
+      <c r="S7" s="704"/>
+      <c r="T7" s="704"/>
+      <c r="U7" s="704"/>
+      <c r="V7" s="704"/>
+      <c r="W7" s="706"/>
+      <c r="X7" s="707" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="702"/>
-      <c r="Z7" s="702"/>
-      <c r="AA7" s="702"/>
-      <c r="AB7" s="702"/>
-      <c r="AC7" s="702"/>
-      <c r="AD7" s="702"/>
-      <c r="AE7" s="702"/>
-      <c r="AF7" s="702"/>
-      <c r="AG7" s="702"/>
-      <c r="AH7" s="702"/>
-      <c r="AI7" s="702"/>
-      <c r="AJ7" s="702"/>
-      <c r="AK7" s="702"/>
-      <c r="AL7" s="702"/>
-      <c r="AM7" s="702"/>
-      <c r="AN7" s="702"/>
-      <c r="AO7" s="702"/>
-      <c r="AP7" s="702"/>
-      <c r="AQ7" s="702"/>
-      <c r="AR7" s="703"/>
-      <c r="AS7" s="704" t="s">
+      <c r="Y7" s="708"/>
+      <c r="Z7" s="708"/>
+      <c r="AA7" s="708"/>
+      <c r="AB7" s="708"/>
+      <c r="AC7" s="708"/>
+      <c r="AD7" s="708"/>
+      <c r="AE7" s="708"/>
+      <c r="AF7" s="708"/>
+      <c r="AG7" s="708"/>
+      <c r="AH7" s="708"/>
+      <c r="AI7" s="708"/>
+      <c r="AJ7" s="708"/>
+      <c r="AK7" s="708"/>
+      <c r="AL7" s="708"/>
+      <c r="AM7" s="708"/>
+      <c r="AN7" s="708"/>
+      <c r="AO7" s="708"/>
+      <c r="AP7" s="708"/>
+      <c r="AQ7" s="708"/>
+      <c r="AR7" s="709"/>
+      <c r="AS7" s="710" t="s">
         <v>8</v>
       </c>
-      <c r="AT7" s="705"/>
-      <c r="AU7" s="706"/>
-      <c r="AV7" s="706"/>
-      <c r="AW7" s="706"/>
-      <c r="AX7" s="706"/>
-      <c r="AY7" s="706"/>
-      <c r="AZ7" s="706"/>
-      <c r="BA7" s="706"/>
-      <c r="BB7" s="706"/>
-      <c r="BC7" s="706"/>
-      <c r="BD7" s="706"/>
-      <c r="BE7" s="707"/>
-      <c r="BF7" s="701" t="s">
+      <c r="AT7" s="711"/>
+      <c r="AU7" s="712"/>
+      <c r="AV7" s="712"/>
+      <c r="AW7" s="712"/>
+      <c r="AX7" s="712"/>
+      <c r="AY7" s="712"/>
+      <c r="AZ7" s="712"/>
+      <c r="BA7" s="712"/>
+      <c r="BB7" s="712"/>
+      <c r="BC7" s="712"/>
+      <c r="BD7" s="712"/>
+      <c r="BE7" s="713"/>
+      <c r="BF7" s="707" t="s">
         <v>9</v>
       </c>
-      <c r="BG7" s="702"/>
-      <c r="BH7" s="702"/>
-      <c r="BI7" s="702"/>
-      <c r="BJ7" s="702"/>
-      <c r="BK7" s="702"/>
-      <c r="BL7" s="702"/>
-      <c r="BM7" s="702"/>
-      <c r="BN7" s="702"/>
-      <c r="BO7" s="702"/>
-      <c r="BP7" s="702"/>
-      <c r="BQ7" s="703"/>
-      <c r="BR7" s="701" t="s">
+      <c r="BG7" s="708"/>
+      <c r="BH7" s="708"/>
+      <c r="BI7" s="708"/>
+      <c r="BJ7" s="708"/>
+      <c r="BK7" s="708"/>
+      <c r="BL7" s="708"/>
+      <c r="BM7" s="708"/>
+      <c r="BN7" s="708"/>
+      <c r="BO7" s="708"/>
+      <c r="BP7" s="708"/>
+      <c r="BQ7" s="709"/>
+      <c r="BR7" s="707" t="s">
         <v>10</v>
       </c>
-      <c r="BS7" s="702"/>
-      <c r="BT7" s="702"/>
-      <c r="BU7" s="702"/>
-      <c r="BV7" s="702"/>
-      <c r="BW7" s="702"/>
-      <c r="BX7" s="702"/>
-      <c r="BY7" s="702"/>
-      <c r="BZ7" s="702"/>
-      <c r="CA7" s="702"/>
-      <c r="CB7" s="702"/>
-      <c r="CC7" s="702"/>
-      <c r="CD7" s="702"/>
-      <c r="CE7" s="702"/>
-      <c r="CF7" s="702"/>
-      <c r="CG7" s="702"/>
-      <c r="CH7" s="702"/>
-      <c r="CI7" s="702"/>
-      <c r="CJ7" s="702"/>
-      <c r="CK7" s="702"/>
-      <c r="CL7" s="702"/>
-      <c r="CM7" s="702"/>
-      <c r="CN7" s="702"/>
-      <c r="CO7" s="702"/>
-      <c r="CP7" s="702"/>
-      <c r="CQ7" s="702"/>
-      <c r="CR7" s="702"/>
-      <c r="CS7" s="702"/>
-      <c r="CT7" s="702"/>
-      <c r="CU7" s="702"/>
-      <c r="CV7" s="701" t="s">
+      <c r="BS7" s="708"/>
+      <c r="BT7" s="708"/>
+      <c r="BU7" s="708"/>
+      <c r="BV7" s="708"/>
+      <c r="BW7" s="708"/>
+      <c r="BX7" s="708"/>
+      <c r="BY7" s="708"/>
+      <c r="BZ7" s="708"/>
+      <c r="CA7" s="708"/>
+      <c r="CB7" s="708"/>
+      <c r="CC7" s="708"/>
+      <c r="CD7" s="708"/>
+      <c r="CE7" s="708"/>
+      <c r="CF7" s="708"/>
+      <c r="CG7" s="708"/>
+      <c r="CH7" s="708"/>
+      <c r="CI7" s="708"/>
+      <c r="CJ7" s="708"/>
+      <c r="CK7" s="708"/>
+      <c r="CL7" s="708"/>
+      <c r="CM7" s="708"/>
+      <c r="CN7" s="708"/>
+      <c r="CO7" s="708"/>
+      <c r="CP7" s="708"/>
+      <c r="CQ7" s="708"/>
+      <c r="CR7" s="708"/>
+      <c r="CS7" s="708"/>
+      <c r="CT7" s="708"/>
+      <c r="CU7" s="708"/>
+      <c r="CV7" s="707" t="s">
         <v>11</v>
       </c>
-      <c r="CW7" s="702"/>
-      <c r="CX7" s="702"/>
-      <c r="CY7" s="702"/>
-      <c r="CZ7" s="702"/>
-      <c r="DA7" s="702"/>
-      <c r="DB7" s="702"/>
-      <c r="DC7" s="702"/>
-      <c r="DD7" s="702"/>
-      <c r="DE7" s="702"/>
-      <c r="DF7" s="702"/>
-      <c r="DG7" s="702"/>
-      <c r="DH7" s="703"/>
-      <c r="DI7" s="701" t="s">
+      <c r="CW7" s="708"/>
+      <c r="CX7" s="708"/>
+      <c r="CY7" s="708"/>
+      <c r="CZ7" s="708"/>
+      <c r="DA7" s="708"/>
+      <c r="DB7" s="708"/>
+      <c r="DC7" s="708"/>
+      <c r="DD7" s="708"/>
+      <c r="DE7" s="708"/>
+      <c r="DF7" s="708"/>
+      <c r="DG7" s="708"/>
+      <c r="DH7" s="709"/>
+      <c r="DI7" s="707" t="s">
         <v>12</v>
       </c>
-      <c r="DJ7" s="702"/>
-      <c r="DK7" s="702"/>
-      <c r="DL7" s="702"/>
-      <c r="DM7" s="702"/>
-      <c r="DN7" s="702"/>
-      <c r="DO7" s="702"/>
-      <c r="DP7" s="702"/>
-      <c r="DQ7" s="702"/>
-      <c r="DR7" s="703"/>
-      <c r="DS7" s="701" t="s">
+      <c r="DJ7" s="708"/>
+      <c r="DK7" s="708"/>
+      <c r="DL7" s="708"/>
+      <c r="DM7" s="708"/>
+      <c r="DN7" s="708"/>
+      <c r="DO7" s="708"/>
+      <c r="DP7" s="708"/>
+      <c r="DQ7" s="708"/>
+      <c r="DR7" s="709"/>
+      <c r="DS7" s="707" t="s">
         <v>13</v>
       </c>
-      <c r="DT7" s="702"/>
-      <c r="DU7" s="702"/>
-      <c r="DV7" s="702"/>
-      <c r="DW7" s="702"/>
-      <c r="DX7" s="703"/>
-      <c r="DY7" s="704" t="s">
+      <c r="DT7" s="708"/>
+      <c r="DU7" s="708"/>
+      <c r="DV7" s="708"/>
+      <c r="DW7" s="708"/>
+      <c r="DX7" s="709"/>
+      <c r="DY7" s="710" t="s">
         <v>14</v>
       </c>
-      <c r="DZ7" s="706"/>
-      <c r="EA7" s="715"/>
-      <c r="EB7" s="698" t="s">
+      <c r="DZ7" s="712"/>
+      <c r="EA7" s="721"/>
+      <c r="EB7" s="703" t="s">
         <v>15</v>
       </c>
-      <c r="EC7" s="699"/>
-      <c r="ED7" s="699"/>
-      <c r="EE7" s="699"/>
-      <c r="EF7" s="700"/>
-      <c r="EG7" s="705" t="s">
+      <c r="EC7" s="704"/>
+      <c r="ED7" s="704"/>
+      <c r="EE7" s="704"/>
+      <c r="EF7" s="706"/>
+      <c r="EG7" s="711" t="s">
         <v>16</v>
       </c>
-      <c r="EH7" s="706"/>
-      <c r="EI7" s="706"/>
-      <c r="EJ7" s="706"/>
-      <c r="EK7" s="706"/>
-      <c r="EL7" s="706"/>
-      <c r="EM7" s="706"/>
-      <c r="EN7" s="706"/>
-      <c r="EO7" s="706"/>
-      <c r="EP7" s="706"/>
-      <c r="EQ7" s="706"/>
-      <c r="ER7" s="706"/>
-      <c r="ES7" s="706"/>
-      <c r="ET7" s="706"/>
-      <c r="EU7" s="706"/>
-      <c r="EV7" s="706"/>
-      <c r="EW7" s="707"/>
+      <c r="EH7" s="712"/>
+      <c r="EI7" s="712"/>
+      <c r="EJ7" s="712"/>
+      <c r="EK7" s="712"/>
+      <c r="EL7" s="712"/>
+      <c r="EM7" s="712"/>
+      <c r="EN7" s="712"/>
+      <c r="EO7" s="712"/>
+      <c r="EP7" s="712"/>
+      <c r="EQ7" s="712"/>
+      <c r="ER7" s="712"/>
+      <c r="ES7" s="712"/>
+      <c r="ET7" s="712"/>
+      <c r="EU7" s="712"/>
+      <c r="EV7" s="712"/>
+      <c r="EW7" s="713"/>
       <c r="EX7" s="2"/>
       <c r="EY7" s="412"/>
       <c r="EZ7" s="413"/>
@@ -39539,11 +39549,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:W7"/>
     <mergeCell ref="X7:AR7"/>
     <mergeCell ref="AS7:BE7"/>
@@ -39557,424 +39562,429 @@
     <mergeCell ref="DY7:EA7"/>
     <mergeCell ref="EB7:EF7"/>
     <mergeCell ref="EG7:EW7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:C26">
-    <cfRule type="containsText" dxfId="251" priority="91" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="252" priority="91" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C26">
-    <cfRule type="containsText" dxfId="250" priority="90" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="251" priority="90" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B29 C11:C24 C26:C29">
-    <cfRule type="containsText" dxfId="249" priority="82" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="250" priority="82" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B29 C10:C24 C26:C29">
-    <cfRule type="containsText" dxfId="248" priority="81" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="249" priority="81" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="247" priority="80" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="248" priority="80" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="246" priority="79" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="247" priority="79" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="containsText" dxfId="245" priority="78" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="246" priority="78" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="containsText" dxfId="244" priority="77" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="245" priority="77" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="243" priority="76" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="244" priority="76" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="242" priority="75" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="243" priority="75" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="241" priority="74" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="242" priority="74" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="240" priority="73" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="241" priority="73" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B29 C11:C24 C26:C29">
-    <cfRule type="containsText" dxfId="239" priority="72" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="240" priority="72" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B29 C10:C24 C26:C29">
-    <cfRule type="containsText" dxfId="238" priority="71" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="239" priority="71" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="237" priority="70" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="238" priority="70" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="236" priority="69" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="237" priority="69" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="containsText" dxfId="235" priority="68" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="236" priority="68" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="containsText" dxfId="234" priority="67" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="235" priority="67" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="233" priority="66" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="234" priority="66" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="232" priority="65" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="233" priority="65" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="231" priority="64" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="232" priority="64" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="230" priority="63" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="231" priority="63" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C18">
-    <cfRule type="containsText" dxfId="229" priority="62" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="230" priority="62" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C18">
-    <cfRule type="containsText" dxfId="228" priority="61" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="229" priority="61" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C18">
-    <cfRule type="containsText" dxfId="227" priority="60" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="228" priority="60" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C18">
-    <cfRule type="containsText" dxfId="226" priority="59" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="227" priority="59" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="225" priority="58" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="226" priority="58" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="224" priority="57" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="225" priority="57" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C26">
-    <cfRule type="containsText" dxfId="223" priority="56" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="224" priority="56" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C26">
-    <cfRule type="containsText" dxfId="222" priority="55" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="223" priority="55" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B26 C24 C26">
-    <cfRule type="containsText" dxfId="221" priority="54" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="222" priority="54" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B26 C24 C26">
-    <cfRule type="containsText" dxfId="220" priority="53" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="221" priority="53" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="219" priority="52" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="220" priority="52" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="218" priority="51" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="219" priority="51" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="217" priority="50" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="218" priority="50" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="216" priority="49" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="217" priority="49" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B29 C11:C24 C26:C29">
-    <cfRule type="containsText" dxfId="215" priority="48" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="216" priority="48" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B29 C10:C24 C26:C29">
-    <cfRule type="containsText" dxfId="214" priority="47" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="215" priority="47" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="213" priority="46" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="214" priority="46" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="212" priority="45" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="213" priority="45" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="containsText" dxfId="211" priority="44" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="212" priority="44" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="containsText" dxfId="210" priority="43" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="211" priority="43" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="209" priority="42" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="210" priority="42" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="208" priority="41" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="209" priority="41" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="207" priority="40" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="208" priority="40" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="206" priority="39" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="207" priority="39" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C18">
-    <cfRule type="containsText" dxfId="205" priority="38" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="206" priority="38" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C18">
-    <cfRule type="containsText" dxfId="204" priority="37" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="205" priority="37" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C18">
-    <cfRule type="containsText" dxfId="203" priority="36" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="204" priority="36" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C18">
-    <cfRule type="containsText" dxfId="202" priority="35" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="203" priority="35" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="201" priority="34" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="202" priority="34" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="200" priority="33" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="201" priority="33" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C26">
-    <cfRule type="containsText" dxfId="199" priority="32" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="200" priority="32" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C26">
-    <cfRule type="containsText" dxfId="198" priority="31" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="199" priority="31" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B26 C24 C26">
-    <cfRule type="containsText" dxfId="197" priority="30" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="198" priority="30" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B26 C24 C26">
-    <cfRule type="containsText" dxfId="196" priority="29" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="197" priority="29" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="195" priority="28" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="196" priority="28" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="194" priority="27" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="195" priority="27" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="193" priority="26" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="194" priority="26" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="192" priority="25" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="193" priority="25" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B29 C11:C24 C26:C29">
-    <cfRule type="containsText" dxfId="191" priority="24" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="192" priority="24" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B29 C10:C24 C26:C29">
-    <cfRule type="containsText" dxfId="190" priority="23" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="191" priority="23" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="189" priority="22" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="190" priority="22" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="188" priority="21" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="189" priority="21" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="containsText" dxfId="187" priority="20" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="188" priority="20" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="containsText" dxfId="186" priority="19" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="187" priority="19" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="185" priority="18" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="186" priority="18" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="184" priority="17" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="185" priority="17" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="183" priority="16" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="184" priority="16" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="182" priority="15" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="183" priority="15" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C18">
-    <cfRule type="containsText" dxfId="181" priority="14" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="182" priority="14" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C18">
-    <cfRule type="containsText" dxfId="180" priority="13" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="181" priority="13" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C18">
-    <cfRule type="containsText" dxfId="179" priority="12" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="180" priority="12" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C18">
-    <cfRule type="containsText" dxfId="178" priority="11" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="179" priority="11" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="177" priority="10" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="178" priority="10" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="176" priority="9" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="177" priority="9" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C26">
-    <cfRule type="containsText" dxfId="175" priority="8" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="176" priority="8" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C26">
-    <cfRule type="containsText" dxfId="174" priority="7" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="175" priority="7" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B26 C24 C26">
-    <cfRule type="containsText" dxfId="173" priority="6" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="174" priority="6" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B26 C24 C26">
-    <cfRule type="containsText" dxfId="172" priority="5" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="173" priority="5" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="171" priority="4" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="172" priority="4" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="170" priority="3" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="171" priority="3" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="169" priority="2" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="170" priority="2" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="168" priority="1" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40286,11 +40296,11 @@
       <c r="H3" s="202" t="s">
         <v>314</v>
       </c>
-      <c r="I3" s="724" t="s">
+      <c r="I3" s="725" t="s">
         <v>1024</v>
       </c>
-      <c r="J3" s="725"/>
-      <c r="K3" s="726"/>
+      <c r="J3" s="726"/>
+      <c r="K3" s="727"/>
       <c r="L3" s="564" t="s">
         <v>270</v>
       </c>
@@ -40605,7 +40615,7 @@
       <c r="H11" s="354" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="721" t="str">
+      <c r="I11" s="724" t="str">
         <f>"XX"&amp;$F11&amp;"_"&amp;$A11&amp;"_RegistroAdministrativo"</f>
         <v>XX1_8_RegistroAdministrativo</v>
       </c>
@@ -41013,7 +41023,7 @@
       <c r="H22" s="354" t="s">
         <v>312</v>
       </c>
-      <c r="I22" s="721" t="str">
+      <c r="I22" s="724" t="str">
         <f>"XX"&amp;$F22&amp;"_"&amp;$A22&amp;"_Parecer"</f>
         <v>XX1_19_Parecer</v>
       </c>
@@ -41090,7 +41100,7 @@
         <v>PROPOSIÇÃO</v>
       </c>
       <c r="H24" s="354"/>
-      <c r="I24" s="721"/>
+      <c r="I24" s="724"/>
       <c r="J24" s="722"/>
       <c r="K24" s="723"/>
     </row>
@@ -41123,7 +41133,7 @@
         <v>PROPOSIÇÃO</v>
       </c>
       <c r="H25" s="354"/>
-      <c r="I25" s="721"/>
+      <c r="I25" s="724"/>
       <c r="J25" s="722"/>
       <c r="K25" s="723"/>
     </row>
@@ -41424,7 +41434,7 @@
       <c r="H34" s="354" t="s">
         <v>315</v>
       </c>
-      <c r="I34" s="721" t="str">
+      <c r="I34" s="724" t="str">
         <f>"XX"&amp;$F34&amp;"_"&amp;$A34&amp;"_Instancia_Apresentacao"</f>
         <v>XX2_31_Instancia_Apresentacao</v>
       </c>
@@ -41501,7 +41511,7 @@
         <v>CONSULTA PÚBLICA INICIAL</v>
       </c>
       <c r="H36" s="355"/>
-      <c r="I36" s="721"/>
+      <c r="I36" s="724"/>
       <c r="J36" s="722"/>
       <c r="K36" s="723"/>
     </row>
@@ -41849,7 +41859,7 @@
       <c r="H46" s="355" t="s">
         <v>312</v>
       </c>
-      <c r="I46" s="721" t="str">
+      <c r="I46" s="724" t="str">
         <f>"XX"&amp;$F46&amp;"_"&amp;$A46&amp;"_Parecer"</f>
         <v>XX2_43_Parecer</v>
       </c>
@@ -42118,7 +42128,7 @@
       <c r="H54" s="355" t="s">
         <v>315</v>
       </c>
-      <c r="I54" s="721" t="str">
+      <c r="I54" s="724" t="str">
         <f>"XX"&amp;$F54&amp;"_"&amp;$A54&amp;"_Conselho_Apresentacao"</f>
         <v>XX3_51_Conselho_Apresentacao</v>
       </c>
@@ -42264,7 +42274,7 @@
       <c r="H58" s="355" t="s">
         <v>312</v>
       </c>
-      <c r="I58" s="721" t="str">
+      <c r="I58" s="724" t="str">
         <f>"XX"&amp;$F58&amp;"_"&amp;$A58&amp;"_Parecer"</f>
         <v>XX3_55_Parecer</v>
       </c>
@@ -42300,7 +42310,7 @@
         <v>AVALIAÇÃO SMUL</v>
       </c>
       <c r="H59" s="355"/>
-      <c r="I59" s="721"/>
+      <c r="I59" s="724"/>
       <c r="J59" s="722"/>
       <c r="K59" s="723"/>
     </row>
@@ -42333,7 +42343,7 @@
         <v>AVALIAÇÃO SMUL</v>
       </c>
       <c r="H60" s="355"/>
-      <c r="I60" s="721"/>
+      <c r="I60" s="724"/>
       <c r="J60" s="722"/>
       <c r="K60" s="723"/>
     </row>
@@ -42366,7 +42376,7 @@
         <v>ELABORAÇÃO</v>
       </c>
       <c r="H61" s="355"/>
-      <c r="I61" s="721"/>
+      <c r="I61" s="724"/>
       <c r="J61" s="722"/>
       <c r="K61" s="723"/>
     </row>
@@ -42399,7 +42409,7 @@
         <v>ELABORAÇÃO</v>
       </c>
       <c r="H62" s="355"/>
-      <c r="I62" s="721"/>
+      <c r="I62" s="724"/>
       <c r="J62" s="722"/>
       <c r="K62" s="723"/>
     </row>
@@ -42434,7 +42444,7 @@
       <c r="H63" s="355" t="s">
         <v>1107</v>
       </c>
-      <c r="I63" s="721"/>
+      <c r="I63" s="724"/>
       <c r="J63" s="722"/>
       <c r="K63" s="723"/>
     </row>
@@ -42467,7 +42477,7 @@
         <v>ELABORAÇÃO</v>
       </c>
       <c r="H64" s="355"/>
-      <c r="I64" s="721"/>
+      <c r="I64" s="724"/>
       <c r="J64" s="722"/>
       <c r="K64" s="723"/>
     </row>
@@ -42502,7 +42512,7 @@
       <c r="H65" s="355" t="s">
         <v>1027</v>
       </c>
-      <c r="I65" s="721" t="str">
+      <c r="I65" s="724" t="str">
         <f>"XX"&amp;$F65&amp;"_"&amp;$A65&amp;"_Oficio_Secretaria"</f>
         <v>XX4_62_Oficio_Secretaria</v>
       </c>
@@ -42705,7 +42715,7 @@
       <c r="H71" s="355" t="s">
         <v>313</v>
       </c>
-      <c r="I71" s="721" t="str">
+      <c r="I71" s="724" t="str">
         <f>"XX"&amp;$F71&amp;"_"&amp;$A71&amp;"_CronogramaParticipacao"</f>
         <v>XX5_68_CronogramaParticipacao</v>
       </c>
@@ -42875,7 +42885,7 @@
       <c r="H76" s="355" t="s">
         <v>315</v>
       </c>
-      <c r="I76" s="721" t="str">
+      <c r="I76" s="724" t="str">
         <f>"XX"&amp;$F76&amp;"_"&amp;$A76&amp;"_Instancia_Apresentacao"</f>
         <v>XX5_73_Instancia_Apresentacao</v>
       </c>
@@ -42988,7 +42998,7 @@
       <c r="H79" s="355" t="s">
         <v>1025</v>
       </c>
-      <c r="I79" s="721" t="str">
+      <c r="I79" s="724" t="str">
         <f>"XX"&amp;$F79&amp;"_"&amp;$A79&amp;"_TiposConsulta"</f>
         <v>XX5_76_TiposConsulta</v>
       </c>
@@ -43026,7 +43036,7 @@
       <c r="H80" s="355" t="s">
         <v>317</v>
       </c>
-      <c r="I80" s="721" t="str">
+      <c r="I80" s="724" t="str">
         <f>"XX"&amp;$F80&amp;"_"&amp;$A80&amp;"_Consulta_Noticia"</f>
         <v>XX5_77_Consulta_Noticia</v>
       </c>
@@ -43176,7 +43186,7 @@
       <c r="H84" s="356" t="s">
         <v>1018</v>
       </c>
-      <c r="I84" s="721" t="str">
+      <c r="I84" s="724" t="str">
         <f>"XX"&amp;$F84&amp;"_"&amp;$A84&amp;"_Parecer"</f>
         <v>XX5_81_Parecer</v>
       </c>
@@ -43214,7 +43224,7 @@
       <c r="H85" s="355" t="s">
         <v>264</v>
       </c>
-      <c r="I85" s="721" t="str">
+      <c r="I85" s="724" t="str">
         <f>"XX"&amp;$F85&amp;"_"&amp;$A85&amp;"_Minuta_Noticia"</f>
         <v>XX5_82_Minuta_Noticia</v>
       </c>
@@ -43359,7 +43369,7 @@
       <c r="H89" s="355" t="s">
         <v>223</v>
       </c>
-      <c r="I89" s="721" t="str">
+      <c r="I89" s="724" t="str">
         <f>"XX"&amp;$F89&amp;"_"&amp;$A89&amp;"_Minuta_Contribuicoes"</f>
         <v>XX5_86_Minuta_Contribuicoes</v>
       </c>
@@ -43397,7 +43407,7 @@
       <c r="H90" s="356" t="s">
         <v>1018</v>
       </c>
-      <c r="I90" s="721" t="str">
+      <c r="I90" s="724" t="str">
         <f>"XX"&amp;$F90&amp;"_"&amp;$A90&amp;"_AvaliacaoPosConsultaPublica"</f>
         <v>XX5_87_AvaliacaoPosConsultaPublica</v>
       </c>
@@ -43435,7 +43445,7 @@
       <c r="H91" s="355" t="s">
         <v>312</v>
       </c>
-      <c r="I91" s="721" t="str">
+      <c r="I91" s="724" t="str">
         <f>"XX"&amp;$F91&amp;"_"&amp;$A91&amp;"_Parecer"</f>
         <v>XX5_88_Parecer</v>
       </c>
@@ -43473,7 +43483,7 @@
       <c r="H92" s="355" t="s">
         <v>267</v>
       </c>
-      <c r="I92" s="721" t="str">
+      <c r="I92" s="724" t="str">
         <f>"XX"&amp;$F92&amp;"_"&amp;$A92&amp;"_Audiencia_Noticia"</f>
         <v>XX5_89_Audiencia_Noticia</v>
       </c>
@@ -43577,7 +43587,7 @@
       <c r="H95" s="355" t="s">
         <v>315</v>
       </c>
-      <c r="I95" s="721" t="str">
+      <c r="I95" s="724" t="str">
         <f>"XX"&amp;$F95&amp;"_"&amp;$A95&amp;"_Audiencia_Apresentacao"</f>
         <v>XX5_92_Audiencia_Apresentacao</v>
       </c>
@@ -43615,7 +43625,7 @@
       <c r="H96" s="355" t="s">
         <v>268</v>
       </c>
-      <c r="I96" s="721" t="str">
+      <c r="I96" s="724" t="str">
         <f>"XX"&amp;$F96&amp;"_"&amp;$A96&amp;"_Audiencia_Contribuicoes"</f>
         <v>XX5_93_Audiencia_Contribuicoes</v>
       </c>
@@ -44247,7 +44257,7 @@
       <c r="H115" s="355" t="s">
         <v>264</v>
       </c>
-      <c r="I115" s="721" t="str">
+      <c r="I115" s="724" t="str">
         <f>"XX"&amp;$F115&amp;"_"&amp;$A115&amp;"_EnvioNormativo_Noticia"</f>
         <v>XX7_112_EnvioNormativo_Noticia</v>
       </c>
@@ -44722,7 +44732,7 @@
       <c r="H129" s="355" t="s">
         <v>1017</v>
       </c>
-      <c r="I129" s="721" t="str">
+      <c r="I129" s="724" t="str">
         <f>"XX"&amp;$F129&amp;"_"&amp;$A129&amp;"_Perimetro"</f>
         <v>XX8_126_Perimetro</v>
       </c>
@@ -45621,29 +45631,6 @@
     <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="I84:K84"/>
-    <mergeCell ref="I85:K85"/>
     <mergeCell ref="I115:K115"/>
     <mergeCell ref="J118:K118"/>
     <mergeCell ref="I129:K129"/>
@@ -45660,30 +45647,53 @@
     <mergeCell ref="I92:K92"/>
     <mergeCell ref="I95:K95"/>
     <mergeCell ref="I96:K96"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I34:K34"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C143">
-    <cfRule type="cellIs" dxfId="167" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="12" operator="equal">
       <formula>"NOT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="13" operator="equal">
       <formula>"PPT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="14" operator="equal">
       <formula>"DOC"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:G143 G144:G146">
-    <cfRule type="cellIs" dxfId="164" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="11" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="containsText" dxfId="163" priority="7" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="164" priority="7" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="162" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
       <formula>"h"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48333,7 +48343,7 @@
     <filterColumn colId="25"/>
   </autoFilter>
   <conditionalFormatting sqref="AD10 AD13 A6:AC25">
-    <cfRule type="cellIs" dxfId="161" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48349,8 +48359,8 @@
   </sheetPr>
   <dimension ref="A1:AK378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F296" sqref="F296"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J298" sqref="J298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56774,10 +56784,10 @@
         <v>618</v>
       </c>
       <c r="N141" s="239"/>
-      <c r="O141" s="727" t="s">
+      <c r="O141" s="728" t="s">
         <v>239</v>
       </c>
-      <c r="P141" s="727"/>
+      <c r="P141" s="728"/>
       <c r="Q141" s="599" t="s">
         <v>322</v>
       </c>
@@ -57310,10 +57320,10 @@
         <v>899</v>
       </c>
       <c r="N151" s="134"/>
-      <c r="O151" s="728" t="s">
+      <c r="O151" s="729" t="s">
         <v>329</v>
       </c>
-      <c r="P151" s="729"/>
+      <c r="P151" s="730"/>
       <c r="Q151" s="601"/>
     </row>
     <row r="152" spans="1:17" s="240" customFormat="1" ht="15" customHeight="1">
@@ -57356,10 +57366,10 @@
         <v>150</v>
       </c>
       <c r="N152" s="134"/>
-      <c r="O152" s="730">
+      <c r="O152" s="731">
         <v>43220</v>
       </c>
-      <c r="P152" s="731"/>
+      <c r="P152" s="732"/>
       <c r="Q152" s="601"/>
     </row>
     <row r="153" spans="1:17" s="240" customFormat="1" ht="15" customHeight="1">
@@ -62020,7 +62030,7 @@
       <c r="E261" s="586" t="s">
         <v>1270</v>
       </c>
-      <c r="F261" s="754" t="s">
+      <c r="F261" s="697" t="s">
         <v>1365</v>
       </c>
       <c r="G261" s="693">
@@ -64124,6 +64134,30 @@
       <c r="AK296" s="240"/>
     </row>
     <row r="297" spans="1:37">
+      <c r="A297" s="635">
+        <v>7</v>
+      </c>
+      <c r="B297" s="660" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C297" s="639">
+        <v>2</v>
+      </c>
+      <c r="E297" s="117" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F297" s="247" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G297" s="679">
+        <v>50</v>
+      </c>
+      <c r="I297" s="682" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J297" s="687">
+        <v>43286</v>
+      </c>
       <c r="L297" s="240"/>
       <c r="M297" s="240"/>
       <c r="N297" s="240"/>
@@ -66451,637 +66485,637 @@
     <mergeCell ref="O152:P152"/>
   </mergeCells>
   <conditionalFormatting sqref="E43:E76 E176 U142:U143 E233:E234 E237:E240 E267:E276 E284 E2:E35 E123:E168 E184:E225 E245:E259">
-    <cfRule type="cellIs" dxfId="160" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="230" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="231" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="232" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="233" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:M161 M163:M166">
-    <cfRule type="containsText" dxfId="156" priority="114" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="157" priority="114" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:M161 M163:M166">
-    <cfRule type="containsText" dxfId="155" priority="114" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="156" priority="114" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="154" priority="165" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="155" priority="165" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="153" priority="164" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="154" priority="164" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="152" priority="159" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="153" priority="159" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="151" priority="158" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="152" priority="158" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156:M157">
-    <cfRule type="containsText" dxfId="150" priority="155" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="151" priority="155" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156:M157">
-    <cfRule type="containsText" dxfId="149" priority="154" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="150" priority="154" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156:M157">
-    <cfRule type="containsText" dxfId="148" priority="153" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="149" priority="153" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156:M157">
-    <cfRule type="containsText" dxfId="147" priority="152" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="148" priority="152" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="146" priority="151" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="147" priority="151" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="145" priority="150" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="146" priority="150" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="144" priority="143" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="145" priority="143" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="143" priority="142" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="144" priority="142" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156:M157">
-    <cfRule type="containsText" dxfId="142" priority="139" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="143" priority="139" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156:M157">
-    <cfRule type="containsText" dxfId="141" priority="138" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="142" priority="138" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156:M157">
-    <cfRule type="containsText" dxfId="140" priority="137" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="141" priority="137" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156:M157">
-    <cfRule type="containsText" dxfId="139" priority="136" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="140" priority="136" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="138" priority="135" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="139" priority="135" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="137" priority="134" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="138" priority="134" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="136" priority="127" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="137" priority="127" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="135" priority="126" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="136" priority="126" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156:M157">
-    <cfRule type="containsText" dxfId="134" priority="123" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="135" priority="123" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156:M157">
-    <cfRule type="containsText" dxfId="133" priority="122" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="134" priority="122" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156:M157">
-    <cfRule type="containsText" dxfId="132" priority="121" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="133" priority="121" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M156:M157">
-    <cfRule type="containsText" dxfId="131" priority="120" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="132" priority="120" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="130" priority="119" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="131" priority="119" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157">
-    <cfRule type="containsText" dxfId="129" priority="118" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="130" priority="118" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:M166">
-    <cfRule type="containsText" dxfId="128" priority="113" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="129" priority="113" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:M166">
-    <cfRule type="containsText" dxfId="127" priority="112" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="128" priority="112" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:M169">
-    <cfRule type="containsText" dxfId="126" priority="111" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="127" priority="111" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:M169">
-    <cfRule type="containsText" dxfId="125" priority="110" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="126" priority="110" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="124" priority="109" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="125" priority="109" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="123" priority="108" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="124" priority="108" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151">
-    <cfRule type="containsText" dxfId="122" priority="107" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="123" priority="107" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151">
-    <cfRule type="containsText" dxfId="121" priority="106" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="122" priority="106" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:M169">
-    <cfRule type="containsText" dxfId="120" priority="105" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="121" priority="105" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:M169">
-    <cfRule type="containsText" dxfId="119" priority="104" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="120" priority="104" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="118" priority="103" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="119" priority="103" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="117" priority="102" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="118" priority="102" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151">
-    <cfRule type="containsText" dxfId="116" priority="101" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="117" priority="101" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151">
-    <cfRule type="containsText" dxfId="115" priority="100" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="116" priority="100" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157:M158">
-    <cfRule type="containsText" dxfId="114" priority="99" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="115" priority="99" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157:M158">
-    <cfRule type="containsText" dxfId="113" priority="98" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="114" priority="98" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157:M158">
-    <cfRule type="containsText" dxfId="112" priority="97" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="113" priority="97" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157:M158">
-    <cfRule type="containsText" dxfId="111" priority="96" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="112" priority="96" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="110" priority="95" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="111" priority="95" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="109" priority="94" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="110" priority="94" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:M166">
-    <cfRule type="containsText" dxfId="108" priority="93" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="109" priority="93" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:M166">
-    <cfRule type="containsText" dxfId="107" priority="92" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="108" priority="92" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:M166">
-    <cfRule type="containsText" dxfId="106" priority="91" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="107" priority="91" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:M166">
-    <cfRule type="containsText" dxfId="105" priority="90" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="106" priority="90" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:M169">
-    <cfRule type="containsText" dxfId="104" priority="89" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="105" priority="89" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:M169">
-    <cfRule type="containsText" dxfId="103" priority="88" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="104" priority="88" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="102" priority="87" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="103" priority="87" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="101" priority="86" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="102" priority="86" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151">
-    <cfRule type="containsText" dxfId="100" priority="85" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="101" priority="85" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151">
-    <cfRule type="containsText" dxfId="99" priority="84" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="100" priority="84" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157:M158">
-    <cfRule type="containsText" dxfId="98" priority="83" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="99" priority="83" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157:M158">
-    <cfRule type="containsText" dxfId="97" priority="82" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="98" priority="82" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157:M158">
-    <cfRule type="containsText" dxfId="96" priority="81" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="97" priority="81" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157:M158">
-    <cfRule type="containsText" dxfId="95" priority="80" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="96" priority="80" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="94" priority="79" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="95" priority="79" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="93" priority="78" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="94" priority="78" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:M166">
-    <cfRule type="containsText" dxfId="92" priority="77" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="93" priority="77" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:M166">
-    <cfRule type="containsText" dxfId="91" priority="76" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="92" priority="76" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:M166">
-    <cfRule type="containsText" dxfId="90" priority="75" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="91" priority="75" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:M166">
-    <cfRule type="containsText" dxfId="89" priority="74" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="90" priority="74" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:M169">
-    <cfRule type="containsText" dxfId="88" priority="73" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="89" priority="73" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151:M169">
-    <cfRule type="containsText" dxfId="87" priority="72" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="88" priority="72" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="86" priority="71" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="87" priority="71" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="85" priority="70" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="86" priority="70" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151">
-    <cfRule type="containsText" dxfId="84" priority="69" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="85" priority="69" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M151">
-    <cfRule type="containsText" dxfId="83" priority="68" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="84" priority="68" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157:M158">
-    <cfRule type="containsText" dxfId="82" priority="67" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="83" priority="67" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157:M158">
-    <cfRule type="containsText" dxfId="81" priority="66" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="82" priority="66" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157:M158">
-    <cfRule type="containsText" dxfId="80" priority="65" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M157:M158">
-    <cfRule type="containsText" dxfId="79" priority="64" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="80" priority="64" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="78" priority="63" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="79" priority="63" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M158">
-    <cfRule type="containsText" dxfId="77" priority="62" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="78" priority="62" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:M166">
-    <cfRule type="containsText" dxfId="76" priority="61" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="77" priority="61" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:M166">
-    <cfRule type="containsText" dxfId="75" priority="60" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="76" priority="60" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:M166">
-    <cfRule type="containsText" dxfId="74" priority="59" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",M164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:M166">
-    <cfRule type="containsText" dxfId="73" priority="58" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="74" priority="58" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",M164)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:E312 G2:J312 F2:F121 F123:F312">
-    <cfRule type="expression" dxfId="72" priority="57">
+  <conditionalFormatting sqref="A2:E312 F2:F121 F123:F312 G2:J312">
+    <cfRule type="expression" dxfId="73" priority="57">
       <formula>$D2="F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="71" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="53" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="54" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="55" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="56" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="67" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="49" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="50" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="51" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="52" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="cellIs" dxfId="63" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="45" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="46" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="47" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="48" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204">
-    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="41" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="42" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="43" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="44" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E206">
-    <cfRule type="cellIs" dxfId="55" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="37" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="38" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="39" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="40" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E208">
-    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="33" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="35" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="36" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E229">
-    <cfRule type="cellIs" dxfId="47" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="29" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="32" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E229">
-    <cfRule type="cellIs" dxfId="43" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="25" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="26" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="27" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="28" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E244">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="21" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="24" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E244">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="17" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E254">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E296">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E296">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E259">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67329,10 +67363,10 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="747"/>
-      <c r="B2" s="748"/>
-      <c r="C2" s="748"/>
-      <c r="D2" s="748"/>
+      <c r="A2" s="739"/>
+      <c r="B2" s="740"/>
+      <c r="C2" s="740"/>
+      <c r="D2" s="740"/>
       <c r="E2" s="216" t="s">
         <v>287</v>
       </c>
@@ -67357,11 +67391,11 @@
       <c r="M2" s="217" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="748" t="s">
+      <c r="N2" s="740" t="s">
         <v>295</v>
       </c>
-      <c r="O2" s="748"/>
-      <c r="P2" s="749"/>
+      <c r="O2" s="740"/>
+      <c r="P2" s="741"/>
       <c r="Q2" s="217" t="s">
         <v>296</v>
       </c>
@@ -67373,7 +67407,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="738" t="s">
+      <c r="A3" s="742" t="s">
         <v>209</v>
       </c>
       <c r="B3" s="110" t="s">
@@ -67389,15 +67423,15 @@
       <c r="J3" s="220"/>
       <c r="K3" s="220"/>
       <c r="M3" s="107"/>
-      <c r="N3" s="741"/>
-      <c r="O3" s="742"/>
-      <c r="P3" s="743"/>
+      <c r="N3" s="744"/>
+      <c r="O3" s="745"/>
+      <c r="P3" s="746"/>
       <c r="Q3" s="220"/>
       <c r="R3" s="220"/>
       <c r="S3" s="125"/>
     </row>
     <row r="4" spans="1:19" ht="15">
-      <c r="A4" s="739"/>
+      <c r="A4" s="743"/>
       <c r="B4" s="99"/>
       <c r="C4" s="98" t="s">
         <v>152</v>
@@ -67419,7 +67453,7 @@
       <c r="S4" s="125"/>
     </row>
     <row r="5" spans="1:19" ht="15.75">
-      <c r="A5" s="739"/>
+      <c r="A5" s="743"/>
       <c r="B5" s="99"/>
       <c r="D5" s="106" t="s">
         <v>211</v>
@@ -67446,17 +67480,17 @@
         <v>299</v>
       </c>
       <c r="M5" s="107"/>
-      <c r="N5" s="732" t="s">
+      <c r="N5" s="736" t="s">
         <v>299</v>
       </c>
-      <c r="O5" s="733"/>
-      <c r="P5" s="734"/>
+      <c r="O5" s="737"/>
+      <c r="P5" s="738"/>
       <c r="Q5" s="107"/>
       <c r="R5" s="107"/>
       <c r="S5" s="125"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="739"/>
+      <c r="A6" s="743"/>
       <c r="B6" s="107"/>
       <c r="C6" s="108" t="s">
         <v>212</v>
@@ -67479,7 +67513,7 @@
       <c r="S6" s="125"/>
     </row>
     <row r="7" spans="1:19" ht="15">
-      <c r="A7" s="739"/>
+      <c r="A7" s="743"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
       <c r="D7" s="106" t="s">
@@ -67508,17 +67542,17 @@
       </c>
       <c r="L7" s="100"/>
       <c r="M7" s="107"/>
-      <c r="N7" s="732" t="s">
+      <c r="N7" s="736" t="s">
         <v>299</v>
       </c>
-      <c r="O7" s="733"/>
-      <c r="P7" s="734"/>
+      <c r="O7" s="737"/>
+      <c r="P7" s="738"/>
       <c r="Q7" s="107"/>
       <c r="R7" s="107"/>
       <c r="S7" s="125"/>
     </row>
     <row r="8" spans="1:19" ht="15.75">
-      <c r="A8" s="738" t="s">
+      <c r="A8" s="742" t="s">
         <v>214</v>
       </c>
       <c r="B8" s="110" t="s">
@@ -67543,7 +67577,7 @@
       <c r="S8" s="122"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A9" s="739"/>
+      <c r="A9" s="743"/>
       <c r="B9" s="107"/>
       <c r="C9" s="113" t="s">
         <v>216</v>
@@ -67572,17 +67606,17 @@
       </c>
       <c r="L9" s="100"/>
       <c r="M9" s="107"/>
-      <c r="N9" s="744" t="s">
+      <c r="N9" s="733" t="s">
         <v>241</v>
       </c>
-      <c r="O9" s="745"/>
-      <c r="P9" s="746"/>
+      <c r="O9" s="734"/>
+      <c r="P9" s="735"/>
       <c r="Q9" s="107"/>
       <c r="R9" s="107"/>
       <c r="S9" s="125"/>
     </row>
     <row r="10" spans="1:19" ht="15">
-      <c r="A10" s="739"/>
+      <c r="A10" s="743"/>
       <c r="B10" s="107"/>
       <c r="C10" s="114" t="s">
         <v>217</v>
@@ -67611,17 +67645,17 @@
       </c>
       <c r="L10" s="100"/>
       <c r="M10" s="107"/>
-      <c r="N10" s="744" t="s">
+      <c r="N10" s="733" t="s">
         <v>188</v>
       </c>
-      <c r="O10" s="745"/>
-      <c r="P10" s="746"/>
+      <c r="O10" s="734"/>
+      <c r="P10" s="735"/>
       <c r="Q10" s="107"/>
       <c r="R10" s="107"/>
       <c r="S10" s="125"/>
     </row>
     <row r="11" spans="1:19" ht="15">
-      <c r="A11" s="739"/>
+      <c r="A11" s="743"/>
       <c r="B11" s="107"/>
       <c r="C11" s="114" t="s">
         <v>218</v>
@@ -67650,17 +67684,17 @@
       </c>
       <c r="L11" s="100"/>
       <c r="M11" s="107"/>
-      <c r="N11" s="744" t="s">
+      <c r="N11" s="733" t="s">
         <v>188</v>
       </c>
-      <c r="O11" s="745"/>
-      <c r="P11" s="746"/>
+      <c r="O11" s="734"/>
+      <c r="P11" s="735"/>
       <c r="Q11" s="107"/>
       <c r="R11" s="107"/>
       <c r="S11" s="125"/>
     </row>
     <row r="12" spans="1:19" ht="15.75">
-      <c r="A12" s="739"/>
+      <c r="A12" s="743"/>
       <c r="B12" s="115" t="s">
         <v>219</v>
       </c>
@@ -67683,7 +67717,7 @@
       <c r="S12" s="125"/>
     </row>
     <row r="13" spans="1:19" ht="15">
-      <c r="A13" s="739"/>
+      <c r="A13" s="743"/>
       <c r="B13" s="99"/>
       <c r="C13" s="114" t="s">
         <v>220</v>
@@ -67706,7 +67740,7 @@
       <c r="S13" s="125"/>
     </row>
     <row r="14" spans="1:19" ht="15.75">
-      <c r="A14" s="739"/>
+      <c r="A14" s="743"/>
       <c r="B14" s="99"/>
       <c r="C14" s="114"/>
       <c r="D14" s="117" t="s">
@@ -67735,17 +67769,17 @@
       </c>
       <c r="L14" s="100"/>
       <c r="M14" s="107"/>
-      <c r="N14" s="744" t="s">
+      <c r="N14" s="733" t="s">
         <v>188</v>
       </c>
-      <c r="O14" s="745"/>
-      <c r="P14" s="746"/>
+      <c r="O14" s="734"/>
+      <c r="P14" s="735"/>
       <c r="Q14" s="107"/>
       <c r="R14" s="107"/>
       <c r="S14" s="125"/>
     </row>
     <row r="15" spans="1:19" ht="15.75">
-      <c r="A15" s="739"/>
+      <c r="A15" s="743"/>
       <c r="B15" s="99"/>
       <c r="C15" s="98"/>
       <c r="D15" s="117" t="s">
@@ -67774,17 +67808,17 @@
       </c>
       <c r="L15" s="100"/>
       <c r="M15" s="107"/>
-      <c r="N15" s="744" t="s">
+      <c r="N15" s="733" t="s">
         <v>188</v>
       </c>
-      <c r="O15" s="745"/>
-      <c r="P15" s="746"/>
+      <c r="O15" s="734"/>
+      <c r="P15" s="735"/>
       <c r="Q15" s="107"/>
       <c r="R15" s="107"/>
       <c r="S15" s="125"/>
     </row>
     <row r="16" spans="1:19" ht="15.75">
-      <c r="A16" s="739"/>
+      <c r="A16" s="743"/>
       <c r="B16" s="99"/>
       <c r="C16" s="98"/>
       <c r="D16" s="117" t="s">
@@ -67809,17 +67843,17 @@
       </c>
       <c r="L16" s="100"/>
       <c r="M16" s="107"/>
-      <c r="N16" s="744" t="s">
+      <c r="N16" s="733" t="s">
         <v>188</v>
       </c>
-      <c r="O16" s="745"/>
-      <c r="P16" s="746"/>
+      <c r="O16" s="734"/>
+      <c r="P16" s="735"/>
       <c r="Q16" s="107"/>
       <c r="R16" s="107"/>
       <c r="S16" s="125"/>
     </row>
     <row r="17" spans="1:19" ht="15.75">
-      <c r="A17" s="739"/>
+      <c r="A17" s="743"/>
       <c r="B17" s="99"/>
       <c r="C17" s="98"/>
       <c r="D17" s="117" t="s">
@@ -67844,17 +67878,17 @@
       </c>
       <c r="L17" s="100"/>
       <c r="M17" s="107"/>
-      <c r="N17" s="744" t="s">
+      <c r="N17" s="733" t="s">
         <v>188</v>
       </c>
-      <c r="O17" s="745"/>
-      <c r="P17" s="746"/>
+      <c r="O17" s="734"/>
+      <c r="P17" s="735"/>
       <c r="Q17" s="107"/>
       <c r="R17" s="107"/>
       <c r="S17" s="125"/>
     </row>
     <row r="18" spans="1:19" ht="15">
-      <c r="A18" s="739"/>
+      <c r="A18" s="743"/>
       <c r="B18" s="99"/>
       <c r="C18" s="114" t="s">
         <v>225</v>
@@ -67877,7 +67911,7 @@
       <c r="S18" s="125"/>
     </row>
     <row r="19" spans="1:19" ht="15.75">
-      <c r="A19" s="739"/>
+      <c r="A19" s="743"/>
       <c r="B19" s="99"/>
       <c r="C19" s="114"/>
       <c r="D19" s="117" t="s">
@@ -67902,17 +67936,17 @@
       <c r="K19" s="222"/>
       <c r="L19" s="100"/>
       <c r="M19" s="107"/>
-      <c r="N19" s="732" t="s">
+      <c r="N19" s="736" t="s">
         <v>299</v>
       </c>
-      <c r="O19" s="733"/>
-      <c r="P19" s="734"/>
+      <c r="O19" s="737"/>
+      <c r="P19" s="738"/>
       <c r="Q19" s="107"/>
       <c r="R19" s="107"/>
       <c r="S19" s="125"/>
     </row>
     <row r="20" spans="1:19" ht="15.75">
-      <c r="A20" s="739"/>
+      <c r="A20" s="743"/>
       <c r="B20" s="99"/>
       <c r="C20" s="98"/>
       <c r="D20" s="117" t="s">
@@ -67937,17 +67971,17 @@
       <c r="K20" s="222"/>
       <c r="L20" s="100"/>
       <c r="M20" s="107"/>
-      <c r="N20" s="732" t="s">
+      <c r="N20" s="736" t="s">
         <v>299</v>
       </c>
-      <c r="O20" s="733"/>
-      <c r="P20" s="734"/>
+      <c r="O20" s="737"/>
+      <c r="P20" s="738"/>
       <c r="Q20" s="107"/>
       <c r="R20" s="107"/>
       <c r="S20" s="125"/>
     </row>
     <row r="21" spans="1:19" ht="15.75">
-      <c r="A21" s="739"/>
+      <c r="A21" s="743"/>
       <c r="B21" s="99"/>
       <c r="C21" s="98"/>
       <c r="D21" s="117" t="s">
@@ -67972,17 +68006,17 @@
       <c r="K21" s="222"/>
       <c r="L21" s="100"/>
       <c r="M21" s="107"/>
-      <c r="N21" s="732" t="s">
+      <c r="N21" s="736" t="s">
         <v>299</v>
       </c>
-      <c r="O21" s="733"/>
-      <c r="P21" s="734"/>
+      <c r="O21" s="737"/>
+      <c r="P21" s="738"/>
       <c r="Q21" s="107"/>
       <c r="R21" s="107"/>
       <c r="S21" s="125"/>
     </row>
     <row r="22" spans="1:19" ht="15.75">
-      <c r="A22" s="739"/>
+      <c r="A22" s="743"/>
       <c r="B22" s="99"/>
       <c r="C22" s="116"/>
       <c r="D22" s="117" t="s">
@@ -68007,17 +68041,17 @@
       <c r="K22" s="222"/>
       <c r="L22" s="100"/>
       <c r="M22" s="107"/>
-      <c r="N22" s="732" t="s">
+      <c r="N22" s="736" t="s">
         <v>299</v>
       </c>
-      <c r="O22" s="733"/>
-      <c r="P22" s="734"/>
+      <c r="O22" s="737"/>
+      <c r="P22" s="738"/>
       <c r="Q22" s="107"/>
       <c r="R22" s="107"/>
       <c r="S22" s="125"/>
     </row>
     <row r="23" spans="1:19" ht="15">
-      <c r="A23" s="739"/>
+      <c r="A23" s="743"/>
       <c r="B23" s="99"/>
       <c r="C23" s="116"/>
       <c r="D23" s="117" t="s">
@@ -68042,17 +68076,17 @@
       <c r="K23" s="222"/>
       <c r="L23" s="100"/>
       <c r="M23" s="107"/>
-      <c r="N23" s="732" t="s">
+      <c r="N23" s="736" t="s">
         <v>299</v>
       </c>
-      <c r="O23" s="733"/>
-      <c r="P23" s="734"/>
+      <c r="O23" s="737"/>
+      <c r="P23" s="738"/>
       <c r="Q23" s="107"/>
       <c r="R23" s="107"/>
       <c r="S23" s="125"/>
     </row>
     <row r="24" spans="1:19" ht="15">
-      <c r="A24" s="740"/>
+      <c r="A24" s="750"/>
       <c r="B24" s="118"/>
       <c r="C24" s="119"/>
       <c r="D24" s="120" t="s">
@@ -68077,17 +68111,17 @@
       <c r="K24" s="120"/>
       <c r="L24" s="100"/>
       <c r="M24" s="120"/>
-      <c r="N24" s="735" t="s">
+      <c r="N24" s="747" t="s">
         <v>299</v>
       </c>
-      <c r="O24" s="736"/>
-      <c r="P24" s="737"/>
+      <c r="O24" s="748"/>
+      <c r="P24" s="749"/>
       <c r="Q24" s="120"/>
       <c r="R24" s="120"/>
       <c r="S24" s="105"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A25" s="738" t="s">
+      <c r="A25" s="742" t="s">
         <v>230</v>
       </c>
       <c r="B25" s="121" t="s">
@@ -68112,17 +68146,17 @@
       <c r="K25" s="226"/>
       <c r="L25" s="100"/>
       <c r="M25" s="220"/>
-      <c r="N25" s="741" t="s">
+      <c r="N25" s="744" t="s">
         <v>188</v>
       </c>
-      <c r="O25" s="742"/>
-      <c r="P25" s="743"/>
+      <c r="O25" s="745"/>
+      <c r="P25" s="746"/>
       <c r="Q25" s="220"/>
       <c r="R25" s="220"/>
       <c r="S25" s="122"/>
     </row>
     <row r="26" spans="1:19" ht="15.75">
-      <c r="A26" s="739"/>
+      <c r="A26" s="743"/>
       <c r="B26" s="115" t="s">
         <v>233</v>
       </c>
@@ -68145,7 +68179,7 @@
       <c r="S26" s="125"/>
     </row>
     <row r="27" spans="1:19" ht="15">
-      <c r="A27" s="739"/>
+      <c r="A27" s="743"/>
       <c r="B27" s="107"/>
       <c r="C27" s="124" t="s">
         <v>234</v>
@@ -68168,7 +68202,7 @@
       <c r="S27" s="125"/>
     </row>
     <row r="28" spans="1:19" ht="15">
-      <c r="A28" s="739"/>
+      <c r="A28" s="743"/>
       <c r="B28" s="107"/>
       <c r="C28" s="124"/>
       <c r="D28" s="107" t="s">
@@ -68187,17 +68221,17 @@
       <c r="K28" s="222"/>
       <c r="L28" s="100"/>
       <c r="M28" s="107"/>
-      <c r="N28" s="732" t="s">
+      <c r="N28" s="736" t="s">
         <v>188</v>
       </c>
-      <c r="O28" s="733"/>
-      <c r="P28" s="734"/>
+      <c r="O28" s="737"/>
+      <c r="P28" s="738"/>
       <c r="Q28" s="107"/>
       <c r="R28" s="107"/>
       <c r="S28" s="125"/>
     </row>
     <row r="29" spans="1:19" ht="15">
-      <c r="A29" s="739"/>
+      <c r="A29" s="743"/>
       <c r="B29" s="107"/>
       <c r="C29" s="125"/>
       <c r="D29" s="117" t="s">
@@ -68218,17 +68252,17 @@
       <c r="K29" s="222"/>
       <c r="L29" s="100"/>
       <c r="M29" s="107"/>
-      <c r="N29" s="732" t="s">
+      <c r="N29" s="736" t="s">
         <v>188</v>
       </c>
-      <c r="O29" s="733"/>
-      <c r="P29" s="734"/>
+      <c r="O29" s="737"/>
+      <c r="P29" s="738"/>
       <c r="Q29" s="107"/>
       <c r="R29" s="107"/>
       <c r="S29" s="125"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="739"/>
+      <c r="A30" s="743"/>
       <c r="B30" s="107"/>
       <c r="C30" s="125"/>
       <c r="D30" s="117" t="s">
@@ -68245,15 +68279,15 @@
       <c r="K30" s="222"/>
       <c r="L30" s="100"/>
       <c r="M30" s="107"/>
-      <c r="N30" s="732"/>
-      <c r="O30" s="733"/>
-      <c r="P30" s="734"/>
+      <c r="N30" s="736"/>
+      <c r="O30" s="737"/>
+      <c r="P30" s="738"/>
       <c r="Q30" s="107"/>
       <c r="R30" s="107"/>
       <c r="S30" s="125"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="739"/>
+      <c r="A31" s="743"/>
       <c r="B31" s="107"/>
       <c r="C31" s="125"/>
       <c r="D31" s="117" t="s">
@@ -68270,15 +68304,15 @@
       <c r="K31" s="222"/>
       <c r="L31" s="100"/>
       <c r="M31" s="107"/>
-      <c r="N31" s="732"/>
-      <c r="O31" s="733"/>
-      <c r="P31" s="734"/>
+      <c r="N31" s="736"/>
+      <c r="O31" s="737"/>
+      <c r="P31" s="738"/>
       <c r="Q31" s="107"/>
       <c r="R31" s="107"/>
       <c r="S31" s="125"/>
     </row>
     <row r="32" spans="1:19" ht="15">
-      <c r="A32" s="739"/>
+      <c r="A32" s="743"/>
       <c r="B32" s="107"/>
       <c r="C32" s="124" t="s">
         <v>225</v>
@@ -68301,7 +68335,7 @@
       <c r="S32" s="125"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A33" s="739"/>
+      <c r="A33" s="743"/>
       <c r="B33" s="107"/>
       <c r="C33" s="124"/>
       <c r="D33" s="107" t="s">
@@ -68332,7 +68366,7 @@
       <c r="S33" s="125"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="739"/>
+      <c r="A34" s="743"/>
       <c r="B34" s="107"/>
       <c r="C34" s="125"/>
       <c r="D34" s="117" t="s">
@@ -68363,7 +68397,7 @@
       <c r="S34" s="125"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="739"/>
+      <c r="A35" s="743"/>
       <c r="B35" s="107"/>
       <c r="C35" s="125"/>
       <c r="D35" s="117" t="s">
@@ -68394,7 +68428,7 @@
       <c r="S35" s="125"/>
     </row>
     <row r="36" spans="1:19" ht="15">
-      <c r="A36" s="739"/>
+      <c r="A36" s="743"/>
       <c r="B36" s="107"/>
       <c r="C36" s="123"/>
       <c r="D36" s="117" t="s">
@@ -68425,7 +68459,7 @@
       <c r="S36" s="125"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="740"/>
+      <c r="A37" s="750"/>
       <c r="B37" s="107"/>
       <c r="C37" s="125"/>
       <c r="D37" s="117" t="s">
@@ -68687,16 +68721,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N7:P7"/>
     <mergeCell ref="N21:P21"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="N23:P23"/>
@@ -68713,57 +68737,67 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="E12:E22 E25:K38 E23:K23 F24:H24 E10 F8:K8 F10:K22 E7:K7 E5:K5">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:S49 O1:P8 O12:P13 O18:P18 O33:P49 O20:P24 O26:P27 B1:N49 A1:A3 A8 A25:A49">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"_"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:S2 M2:N2">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"_"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:S2 M2:N2">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:S2 M2:N2">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"_"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -68944,321 +68978,321 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:140" ht="39.75" thickBot="1">
-      <c r="A1" s="717" t="s">
+      <c r="A1" s="700" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="718"/>
-      <c r="C1" s="718"/>
-      <c r="D1" s="718"/>
-      <c r="E1" s="718"/>
-      <c r="F1" s="718"/>
-      <c r="G1" s="718"/>
-      <c r="H1" s="718"/>
-      <c r="I1" s="719"/>
-      <c r="J1" s="751" t="s">
+      <c r="B1" s="701"/>
+      <c r="C1" s="701"/>
+      <c r="D1" s="701"/>
+      <c r="E1" s="701"/>
+      <c r="F1" s="701"/>
+      <c r="G1" s="701"/>
+      <c r="H1" s="701"/>
+      <c r="I1" s="702"/>
+      <c r="J1" s="752" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="752"/>
-      <c r="L1" s="752"/>
-      <c r="M1" s="752"/>
-      <c r="N1" s="752"/>
-      <c r="O1" s="752"/>
-      <c r="P1" s="752"/>
-      <c r="Q1" s="752"/>
-      <c r="R1" s="752"/>
-      <c r="S1" s="752"/>
-      <c r="T1" s="752"/>
-      <c r="U1" s="752"/>
-      <c r="V1" s="752"/>
-      <c r="W1" s="752"/>
-      <c r="X1" s="752"/>
-      <c r="Y1" s="752"/>
-      <c r="Z1" s="752"/>
-      <c r="AA1" s="752"/>
-      <c r="AB1" s="752"/>
-      <c r="AC1" s="752"/>
-      <c r="AD1" s="752"/>
-      <c r="AE1" s="752"/>
-      <c r="AF1" s="752"/>
-      <c r="AG1" s="752"/>
-      <c r="AH1" s="752"/>
-      <c r="AI1" s="752"/>
-      <c r="AJ1" s="752"/>
-      <c r="AK1" s="752"/>
-      <c r="AL1" s="752"/>
-      <c r="AM1" s="752"/>
-      <c r="AN1" s="752"/>
-      <c r="AO1" s="752"/>
-      <c r="AP1" s="752"/>
-      <c r="AQ1" s="752"/>
-      <c r="AR1" s="752"/>
-      <c r="AS1" s="752"/>
-      <c r="AT1" s="752"/>
-      <c r="AU1" s="752"/>
-      <c r="AV1" s="752"/>
-      <c r="AW1" s="752"/>
-      <c r="AX1" s="752"/>
-      <c r="AY1" s="752"/>
-      <c r="AZ1" s="752"/>
-      <c r="BA1" s="752"/>
-      <c r="BB1" s="752"/>
-      <c r="BC1" s="752"/>
-      <c r="BD1" s="752"/>
-      <c r="BE1" s="752"/>
-      <c r="BF1" s="752"/>
-      <c r="BG1" s="752"/>
-      <c r="BH1" s="752"/>
-      <c r="BI1" s="752"/>
-      <c r="BJ1" s="752"/>
-      <c r="BK1" s="752"/>
-      <c r="BL1" s="752"/>
-      <c r="BM1" s="752"/>
-      <c r="BN1" s="752"/>
-      <c r="BO1" s="752"/>
-      <c r="BP1" s="752"/>
-      <c r="BQ1" s="752"/>
-      <c r="BR1" s="752"/>
-      <c r="BS1" s="752"/>
-      <c r="BT1" s="752"/>
-      <c r="BU1" s="752"/>
-      <c r="BV1" s="752"/>
-      <c r="BW1" s="752"/>
-      <c r="BX1" s="752"/>
-      <c r="BY1" s="752"/>
-      <c r="BZ1" s="752"/>
-      <c r="CA1" s="752"/>
-      <c r="CB1" s="752"/>
-      <c r="CC1" s="752"/>
-      <c r="CD1" s="752"/>
-      <c r="CE1" s="752"/>
-      <c r="CF1" s="752"/>
-      <c r="CG1" s="752"/>
-      <c r="CH1" s="752"/>
-      <c r="CI1" s="752"/>
-      <c r="CJ1" s="752"/>
-      <c r="CK1" s="752"/>
-      <c r="CL1" s="752"/>
-      <c r="CM1" s="752"/>
-      <c r="CN1" s="752"/>
-      <c r="CO1" s="752"/>
-      <c r="CP1" s="752"/>
-      <c r="CQ1" s="752"/>
-      <c r="CR1" s="752"/>
-      <c r="CS1" s="752"/>
-      <c r="CT1" s="752"/>
-      <c r="CU1" s="752"/>
-      <c r="CV1" s="752"/>
-      <c r="CW1" s="752"/>
-      <c r="CX1" s="752"/>
-      <c r="CY1" s="752"/>
-      <c r="CZ1" s="752"/>
-      <c r="DA1" s="752"/>
-      <c r="DB1" s="752"/>
-      <c r="DC1" s="752"/>
-      <c r="DD1" s="752"/>
-      <c r="DE1" s="752"/>
-      <c r="DF1" s="752"/>
-      <c r="DG1" s="752"/>
-      <c r="DH1" s="752"/>
-      <c r="DI1" s="752"/>
-      <c r="DJ1" s="752"/>
-      <c r="DK1" s="752"/>
-      <c r="DL1" s="752"/>
-      <c r="DM1" s="753"/>
-      <c r="DN1" s="711" t="s">
+      <c r="K1" s="753"/>
+      <c r="L1" s="753"/>
+      <c r="M1" s="753"/>
+      <c r="N1" s="753"/>
+      <c r="O1" s="753"/>
+      <c r="P1" s="753"/>
+      <c r="Q1" s="753"/>
+      <c r="R1" s="753"/>
+      <c r="S1" s="753"/>
+      <c r="T1" s="753"/>
+      <c r="U1" s="753"/>
+      <c r="V1" s="753"/>
+      <c r="W1" s="753"/>
+      <c r="X1" s="753"/>
+      <c r="Y1" s="753"/>
+      <c r="Z1" s="753"/>
+      <c r="AA1" s="753"/>
+      <c r="AB1" s="753"/>
+      <c r="AC1" s="753"/>
+      <c r="AD1" s="753"/>
+      <c r="AE1" s="753"/>
+      <c r="AF1" s="753"/>
+      <c r="AG1" s="753"/>
+      <c r="AH1" s="753"/>
+      <c r="AI1" s="753"/>
+      <c r="AJ1" s="753"/>
+      <c r="AK1" s="753"/>
+      <c r="AL1" s="753"/>
+      <c r="AM1" s="753"/>
+      <c r="AN1" s="753"/>
+      <c r="AO1" s="753"/>
+      <c r="AP1" s="753"/>
+      <c r="AQ1" s="753"/>
+      <c r="AR1" s="753"/>
+      <c r="AS1" s="753"/>
+      <c r="AT1" s="753"/>
+      <c r="AU1" s="753"/>
+      <c r="AV1" s="753"/>
+      <c r="AW1" s="753"/>
+      <c r="AX1" s="753"/>
+      <c r="AY1" s="753"/>
+      <c r="AZ1" s="753"/>
+      <c r="BA1" s="753"/>
+      <c r="BB1" s="753"/>
+      <c r="BC1" s="753"/>
+      <c r="BD1" s="753"/>
+      <c r="BE1" s="753"/>
+      <c r="BF1" s="753"/>
+      <c r="BG1" s="753"/>
+      <c r="BH1" s="753"/>
+      <c r="BI1" s="753"/>
+      <c r="BJ1" s="753"/>
+      <c r="BK1" s="753"/>
+      <c r="BL1" s="753"/>
+      <c r="BM1" s="753"/>
+      <c r="BN1" s="753"/>
+      <c r="BO1" s="753"/>
+      <c r="BP1" s="753"/>
+      <c r="BQ1" s="753"/>
+      <c r="BR1" s="753"/>
+      <c r="BS1" s="753"/>
+      <c r="BT1" s="753"/>
+      <c r="BU1" s="753"/>
+      <c r="BV1" s="753"/>
+      <c r="BW1" s="753"/>
+      <c r="BX1" s="753"/>
+      <c r="BY1" s="753"/>
+      <c r="BZ1" s="753"/>
+      <c r="CA1" s="753"/>
+      <c r="CB1" s="753"/>
+      <c r="CC1" s="753"/>
+      <c r="CD1" s="753"/>
+      <c r="CE1" s="753"/>
+      <c r="CF1" s="753"/>
+      <c r="CG1" s="753"/>
+      <c r="CH1" s="753"/>
+      <c r="CI1" s="753"/>
+      <c r="CJ1" s="753"/>
+      <c r="CK1" s="753"/>
+      <c r="CL1" s="753"/>
+      <c r="CM1" s="753"/>
+      <c r="CN1" s="753"/>
+      <c r="CO1" s="753"/>
+      <c r="CP1" s="753"/>
+      <c r="CQ1" s="753"/>
+      <c r="CR1" s="753"/>
+      <c r="CS1" s="753"/>
+      <c r="CT1" s="753"/>
+      <c r="CU1" s="753"/>
+      <c r="CV1" s="753"/>
+      <c r="CW1" s="753"/>
+      <c r="CX1" s="753"/>
+      <c r="CY1" s="753"/>
+      <c r="CZ1" s="753"/>
+      <c r="DA1" s="753"/>
+      <c r="DB1" s="753"/>
+      <c r="DC1" s="753"/>
+      <c r="DD1" s="753"/>
+      <c r="DE1" s="753"/>
+      <c r="DF1" s="753"/>
+      <c r="DG1" s="753"/>
+      <c r="DH1" s="753"/>
+      <c r="DI1" s="753"/>
+      <c r="DJ1" s="753"/>
+      <c r="DK1" s="753"/>
+      <c r="DL1" s="753"/>
+      <c r="DM1" s="754"/>
+      <c r="DN1" s="717" t="s">
         <v>2</v>
       </c>
-      <c r="DO1" s="712"/>
-      <c r="DP1" s="712"/>
-      <c r="DQ1" s="713"/>
-      <c r="DR1" s="713"/>
-      <c r="DS1" s="713"/>
-      <c r="DT1" s="713"/>
-      <c r="DU1" s="713"/>
-      <c r="DV1" s="712"/>
-      <c r="DW1" s="712"/>
-      <c r="DX1" s="712"/>
-      <c r="DY1" s="712"/>
-      <c r="DZ1" s="712"/>
-      <c r="EA1" s="712"/>
-      <c r="EB1" s="712"/>
-      <c r="EC1" s="712"/>
-      <c r="ED1" s="712"/>
-      <c r="EE1" s="712"/>
-      <c r="EF1" s="712"/>
-      <c r="EG1" s="712"/>
-      <c r="EH1" s="712"/>
-      <c r="EI1" s="714"/>
+      <c r="DO1" s="718"/>
+      <c r="DP1" s="718"/>
+      <c r="DQ1" s="719"/>
+      <c r="DR1" s="719"/>
+      <c r="DS1" s="719"/>
+      <c r="DT1" s="719"/>
+      <c r="DU1" s="719"/>
+      <c r="DV1" s="718"/>
+      <c r="DW1" s="718"/>
+      <c r="DX1" s="718"/>
+      <c r="DY1" s="718"/>
+      <c r="DZ1" s="718"/>
+      <c r="EA1" s="718"/>
+      <c r="EB1" s="718"/>
+      <c r="EC1" s="718"/>
+      <c r="ED1" s="718"/>
+      <c r="EE1" s="718"/>
+      <c r="EF1" s="718"/>
+      <c r="EG1" s="718"/>
+      <c r="EH1" s="718"/>
+      <c r="EI1" s="720"/>
       <c r="EJ1" s="1"/>
     </row>
     <row r="2" spans="1:140" ht="31.5">
-      <c r="A2" s="698" t="s">
+      <c r="A2" s="703" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="699"/>
-      <c r="C2" s="699"/>
-      <c r="D2" s="699"/>
-      <c r="E2" s="699"/>
-      <c r="F2" s="699"/>
-      <c r="G2" s="720"/>
-      <c r="H2" s="698" t="s">
+      <c r="B2" s="704"/>
+      <c r="C2" s="704"/>
+      <c r="D2" s="704"/>
+      <c r="E2" s="704"/>
+      <c r="F2" s="704"/>
+      <c r="G2" s="705"/>
+      <c r="H2" s="703" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="700"/>
-      <c r="J2" s="698" t="s">
+      <c r="I2" s="706"/>
+      <c r="J2" s="703" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="700"/>
-      <c r="L2" s="698" t="s">
+      <c r="K2" s="706"/>
+      <c r="L2" s="703" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="699"/>
-      <c r="N2" s="699"/>
-      <c r="O2" s="699"/>
-      <c r="P2" s="699"/>
-      <c r="Q2" s="699"/>
-      <c r="R2" s="699"/>
-      <c r="S2" s="699"/>
-      <c r="T2" s="699"/>
-      <c r="U2" s="699"/>
-      <c r="V2" s="700"/>
-      <c r="W2" s="704" t="s">
+      <c r="M2" s="704"/>
+      <c r="N2" s="704"/>
+      <c r="O2" s="704"/>
+      <c r="P2" s="704"/>
+      <c r="Q2" s="704"/>
+      <c r="R2" s="704"/>
+      <c r="S2" s="704"/>
+      <c r="T2" s="704"/>
+      <c r="U2" s="704"/>
+      <c r="V2" s="706"/>
+      <c r="W2" s="710" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="706"/>
-      <c r="Y2" s="706"/>
-      <c r="Z2" s="706"/>
-      <c r="AA2" s="706"/>
-      <c r="AB2" s="706"/>
-      <c r="AC2" s="706"/>
-      <c r="AD2" s="706"/>
-      <c r="AE2" s="706"/>
-      <c r="AF2" s="706"/>
-      <c r="AG2" s="706"/>
-      <c r="AH2" s="706"/>
-      <c r="AI2" s="706"/>
-      <c r="AJ2" s="706"/>
-      <c r="AK2" s="706"/>
-      <c r="AL2" s="706"/>
-      <c r="AM2" s="706"/>
-      <c r="AN2" s="706"/>
-      <c r="AO2" s="707"/>
-      <c r="AP2" s="704" t="s">
+      <c r="X2" s="712"/>
+      <c r="Y2" s="712"/>
+      <c r="Z2" s="712"/>
+      <c r="AA2" s="712"/>
+      <c r="AB2" s="712"/>
+      <c r="AC2" s="712"/>
+      <c r="AD2" s="712"/>
+      <c r="AE2" s="712"/>
+      <c r="AF2" s="712"/>
+      <c r="AG2" s="712"/>
+      <c r="AH2" s="712"/>
+      <c r="AI2" s="712"/>
+      <c r="AJ2" s="712"/>
+      <c r="AK2" s="712"/>
+      <c r="AL2" s="712"/>
+      <c r="AM2" s="712"/>
+      <c r="AN2" s="712"/>
+      <c r="AO2" s="713"/>
+      <c r="AP2" s="710" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" s="705"/>
-      <c r="AR2" s="706"/>
-      <c r="AS2" s="706"/>
-      <c r="AT2" s="706"/>
-      <c r="AU2" s="706"/>
-      <c r="AV2" s="706"/>
-      <c r="AW2" s="706"/>
-      <c r="AX2" s="706"/>
-      <c r="AY2" s="706"/>
-      <c r="AZ2" s="706"/>
-      <c r="BA2" s="706"/>
-      <c r="BB2" s="707"/>
-      <c r="BC2" s="704" t="s">
+      <c r="AQ2" s="711"/>
+      <c r="AR2" s="712"/>
+      <c r="AS2" s="712"/>
+      <c r="AT2" s="712"/>
+      <c r="AU2" s="712"/>
+      <c r="AV2" s="712"/>
+      <c r="AW2" s="712"/>
+      <c r="AX2" s="712"/>
+      <c r="AY2" s="712"/>
+      <c r="AZ2" s="712"/>
+      <c r="BA2" s="712"/>
+      <c r="BB2" s="713"/>
+      <c r="BC2" s="710" t="s">
         <v>9</v>
       </c>
-      <c r="BD2" s="706"/>
-      <c r="BE2" s="706"/>
-      <c r="BF2" s="706"/>
-      <c r="BG2" s="706"/>
-      <c r="BH2" s="706"/>
-      <c r="BI2" s="706"/>
-      <c r="BJ2" s="706"/>
-      <c r="BK2" s="706"/>
-      <c r="BL2" s="707"/>
-      <c r="BM2" s="704" t="s">
+      <c r="BD2" s="712"/>
+      <c r="BE2" s="712"/>
+      <c r="BF2" s="712"/>
+      <c r="BG2" s="712"/>
+      <c r="BH2" s="712"/>
+      <c r="BI2" s="712"/>
+      <c r="BJ2" s="712"/>
+      <c r="BK2" s="712"/>
+      <c r="BL2" s="713"/>
+      <c r="BM2" s="710" t="s">
         <v>10</v>
       </c>
-      <c r="BN2" s="706"/>
-      <c r="BO2" s="706"/>
-      <c r="BP2" s="706"/>
-      <c r="BQ2" s="706"/>
-      <c r="BR2" s="706"/>
-      <c r="BS2" s="706"/>
-      <c r="BT2" s="706"/>
-      <c r="BU2" s="706"/>
-      <c r="BV2" s="706"/>
-      <c r="BW2" s="706"/>
-      <c r="BX2" s="706"/>
-      <c r="BY2" s="706"/>
-      <c r="BZ2" s="706"/>
-      <c r="CA2" s="706"/>
-      <c r="CB2" s="706"/>
-      <c r="CC2" s="706"/>
-      <c r="CD2" s="706"/>
-      <c r="CE2" s="706"/>
-      <c r="CF2" s="706"/>
-      <c r="CG2" s="706"/>
-      <c r="CH2" s="706"/>
-      <c r="CI2" s="706"/>
-      <c r="CJ2" s="706"/>
-      <c r="CK2" s="706"/>
-      <c r="CL2" s="706"/>
-      <c r="CM2" s="706"/>
-      <c r="CN2" s="707"/>
-      <c r="CO2" s="704" t="s">
+      <c r="BN2" s="712"/>
+      <c r="BO2" s="712"/>
+      <c r="BP2" s="712"/>
+      <c r="BQ2" s="712"/>
+      <c r="BR2" s="712"/>
+      <c r="BS2" s="712"/>
+      <c r="BT2" s="712"/>
+      <c r="BU2" s="712"/>
+      <c r="BV2" s="712"/>
+      <c r="BW2" s="712"/>
+      <c r="BX2" s="712"/>
+      <c r="BY2" s="712"/>
+      <c r="BZ2" s="712"/>
+      <c r="CA2" s="712"/>
+      <c r="CB2" s="712"/>
+      <c r="CC2" s="712"/>
+      <c r="CD2" s="712"/>
+      <c r="CE2" s="712"/>
+      <c r="CF2" s="712"/>
+      <c r="CG2" s="712"/>
+      <c r="CH2" s="712"/>
+      <c r="CI2" s="712"/>
+      <c r="CJ2" s="712"/>
+      <c r="CK2" s="712"/>
+      <c r="CL2" s="712"/>
+      <c r="CM2" s="712"/>
+      <c r="CN2" s="713"/>
+      <c r="CO2" s="710" t="s">
         <v>11</v>
       </c>
-      <c r="CP2" s="706"/>
-      <c r="CQ2" s="706"/>
-      <c r="CR2" s="706"/>
-      <c r="CS2" s="706"/>
-      <c r="CT2" s="706"/>
-      <c r="CU2" s="706"/>
-      <c r="CV2" s="706"/>
-      <c r="CW2" s="706"/>
-      <c r="CX2" s="706"/>
-      <c r="CY2" s="707"/>
-      <c r="CZ2" s="704" t="s">
+      <c r="CP2" s="712"/>
+      <c r="CQ2" s="712"/>
+      <c r="CR2" s="712"/>
+      <c r="CS2" s="712"/>
+      <c r="CT2" s="712"/>
+      <c r="CU2" s="712"/>
+      <c r="CV2" s="712"/>
+      <c r="CW2" s="712"/>
+      <c r="CX2" s="712"/>
+      <c r="CY2" s="713"/>
+      <c r="CZ2" s="710" t="s">
         <v>12</v>
       </c>
-      <c r="DA2" s="706"/>
-      <c r="DB2" s="706"/>
-      <c r="DC2" s="706"/>
-      <c r="DD2" s="706"/>
-      <c r="DE2" s="706"/>
-      <c r="DF2" s="706"/>
-      <c r="DG2" s="706"/>
-      <c r="DH2" s="707"/>
-      <c r="DI2" s="704" t="s">
+      <c r="DA2" s="712"/>
+      <c r="DB2" s="712"/>
+      <c r="DC2" s="712"/>
+      <c r="DD2" s="712"/>
+      <c r="DE2" s="712"/>
+      <c r="DF2" s="712"/>
+      <c r="DG2" s="712"/>
+      <c r="DH2" s="713"/>
+      <c r="DI2" s="710" t="s">
         <v>13</v>
       </c>
-      <c r="DJ2" s="706"/>
-      <c r="DK2" s="706"/>
-      <c r="DL2" s="706"/>
-      <c r="DM2" s="707"/>
-      <c r="DN2" s="704" t="s">
+      <c r="DJ2" s="712"/>
+      <c r="DK2" s="712"/>
+      <c r="DL2" s="712"/>
+      <c r="DM2" s="713"/>
+      <c r="DN2" s="710" t="s">
         <v>14</v>
       </c>
-      <c r="DO2" s="706"/>
-      <c r="DP2" s="715"/>
-      <c r="DQ2" s="698" t="s">
+      <c r="DO2" s="712"/>
+      <c r="DP2" s="721"/>
+      <c r="DQ2" s="703" t="s">
         <v>15</v>
       </c>
-      <c r="DR2" s="699"/>
-      <c r="DS2" s="699"/>
-      <c r="DT2" s="699"/>
-      <c r="DU2" s="700"/>
-      <c r="DV2" s="705" t="s">
+      <c r="DR2" s="704"/>
+      <c r="DS2" s="704"/>
+      <c r="DT2" s="704"/>
+      <c r="DU2" s="706"/>
+      <c r="DV2" s="711" t="s">
         <v>16</v>
       </c>
-      <c r="DW2" s="706"/>
-      <c r="DX2" s="706"/>
-      <c r="DY2" s="706"/>
-      <c r="DZ2" s="706"/>
-      <c r="EA2" s="706"/>
-      <c r="EB2" s="706"/>
-      <c r="EC2" s="706"/>
-      <c r="ED2" s="706"/>
-      <c r="EE2" s="706"/>
-      <c r="EF2" s="706"/>
-      <c r="EG2" s="706"/>
-      <c r="EH2" s="706"/>
-      <c r="EI2" s="707"/>
+      <c r="DW2" s="712"/>
+      <c r="DX2" s="712"/>
+      <c r="DY2" s="712"/>
+      <c r="DZ2" s="712"/>
+      <c r="EA2" s="712"/>
+      <c r="EB2" s="712"/>
+      <c r="EC2" s="712"/>
+      <c r="ED2" s="712"/>
+      <c r="EE2" s="712"/>
+      <c r="EF2" s="712"/>
+      <c r="EG2" s="712"/>
+      <c r="EH2" s="712"/>
+      <c r="EI2" s="713"/>
       <c r="EJ2" s="2"/>
     </row>
     <row r="3" spans="1:140">
@@ -71016,7 +71050,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
       <c r="K8" s="50"/>
-      <c r="L8" s="750" t="s">
+      <c r="L8" s="751" t="s">
         <v>192</v>
       </c>
       <c r="M8" s="144"/>
@@ -71174,7 +71208,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
       <c r="K9" s="50"/>
-      <c r="L9" s="750"/>
+      <c r="L9" s="751"/>
       <c r="M9" s="144"/>
       <c r="N9" s="17"/>
       <c r="O9" s="18"/>
@@ -71324,7 +71358,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
       <c r="K10" s="50"/>
-      <c r="L10" s="750"/>
+      <c r="L10" s="751"/>
       <c r="M10" s="144"/>
       <c r="N10" s="17"/>
       <c r="O10" s="18"/>
@@ -72663,6 +72697,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="CO2:CY2"/>
+    <mergeCell ref="CZ2:DH2"/>
     <mergeCell ref="DI2:DM2"/>
     <mergeCell ref="DN2:DP2"/>
     <mergeCell ref="DQ2:DU2"/>
@@ -72679,16 +72715,14 @@
     <mergeCell ref="BC2:BL2"/>
     <mergeCell ref="DV2:EI2"/>
     <mergeCell ref="BM2:CN2"/>
-    <mergeCell ref="CO2:CY2"/>
-    <mergeCell ref="CZ2:DH2"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:C15">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="PIU">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C15">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -74201,7 +74235,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D2">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Projeto">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Projeto">
       <formula>NOT(ISERROR(SEARCH("Projeto",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
